--- a/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
+++ b/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B89B1E-7A21-4602-A466-09BDE5C8BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA63E10-9565-4161-ACAF-665C273C5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="288">
   <si>
     <t>Field_Name</t>
   </si>
@@ -901,6 +901,12 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Date of end of reporting period</t>
+  </si>
+  <si>
+    <t>No_of_employee</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1621,8 @@
   <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,7 +1702,7 @@
         <v>285</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="K3" s="20"/>
     </row>
@@ -6112,7 +6118,7 @@
         <v>227</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
         <v>226</v>
@@ -12196,7 +12202,7 @@
         <v>227</v>
       </c>
       <c r="E347" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="F347" t="s">
         <v>226</v>
@@ -12563,26 +12569,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -12825,26 +12811,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86CC257-B024-4A6F-A87F-47A37230FB94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aeca75af-2390-46f4-9168-0f31f2cf789f"/>
-    <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01795C61-E9E2-48EE-96A3-3BA6D4830BDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E959EC37-2252-494F-BD4C-49FC9600D78A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12861,4 +12848,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01795C61-E9E2-48EE-96A3-3BA6D4830BDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86CC257-B024-4A6F-A87F-47A37230FB94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aeca75af-2390-46f4-9168-0f31f2cf789f"/>
+    <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
+++ b/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA63E10-9565-4161-ACAF-665C273C5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0A28C-E32F-40C9-BBF0-AB6CD846945B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="290">
   <si>
     <t>Field_Name</t>
   </si>
@@ -907,13 +907,19 @@
   </si>
   <si>
     <t>No_of_employee</t>
+  </si>
+  <si>
+    <t>disclosures_auditor_report</t>
+  </si>
+  <si>
+    <t>disclosures_director_report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1015,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343434"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1158,7 +1171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1307,6 +1320,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1618,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M357"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J147" sqref="J147"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H362" sqref="H362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12542,6 +12559,102 @@
       </c>
       <c r="J357" s="10" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>288</v>
+      </c>
+      <c r="C358" t="s">
+        <v>14</v>
+      </c>
+      <c r="D358" t="s">
+        <v>228</v>
+      </c>
+      <c r="F358" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G358" s="62"/>
+      <c r="H358" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="I358" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J358" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>289</v>
+      </c>
+      <c r="C359" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359" t="s">
+        <v>228</v>
+      </c>
+      <c r="F359" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G359" s="62"/>
+      <c r="H359" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="I359" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J359" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>288</v>
+      </c>
+      <c r="C360" t="s">
+        <v>14</v>
+      </c>
+      <c r="D360" t="s">
+        <v>228</v>
+      </c>
+      <c r="F360" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G360" s="62"/>
+      <c r="H360" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I360" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J360" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>289</v>
+      </c>
+      <c r="C361" t="s">
+        <v>14</v>
+      </c>
+      <c r="D361" t="s">
+        <v>228</v>
+      </c>
+      <c r="F361" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G361" s="62"/>
+      <c r="H361" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I361" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J361" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -12569,6 +12682,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -12811,15 +12933,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12832,6 +12945,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01795C61-E9E2-48EE-96A3-3BA6D4830BDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E959EC37-2252-494F-BD4C-49FC9600D78A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12850,14 +12971,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01795C61-E9E2-48EE-96A3-3BA6D4830BDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86CC257-B024-4A6F-A87F-47A37230FB94}">
   <ds:schemaRefs>

--- a/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
+++ b/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E68F8-7E34-40C1-8469-59015C0B1157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B86EC-1DE7-4144-A29C-585DF6B94E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,9 +870,6 @@
     <t xml:space="preserve">contains adverse remarks </t>
   </si>
   <si>
-    <t xml:space="preserve">under clause (viii) of CARO 2016 is </t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -901,13 +898,16 @@
   </si>
   <si>
     <t>operating_profit+other_income-depreciation</t>
+  </si>
+  <si>
+    <t>Disclosure in auditors report relating to default in repayment of financial dues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,11 +1626,11 @@
   <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E359" sqref="E359"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -1644,7 +1644,7 @@
     <col min="11" max="11" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="J2" s="21"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -1704,21 +1704,21 @@
         <v>219</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.5">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1833,12 +1833,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.5">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="D14" s="62" t="s">
         <v>24</v>
@@ -1961,19 +1961,19 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:12" s="33" customFormat="1" ht="30">
+    <row r="15" spans="1:12" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2398,12 +2398,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30">
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -2828,12 +2828,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>63</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -3217,13 +3217,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="56"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30">
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>63</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>80</v>
       </c>
@@ -3607,13 +3607,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>83</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>87</v>
       </c>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>89</v>
       </c>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>91</v>
       </c>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>93</v>
       </c>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>95</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>97</v>
       </c>
@@ -3844,13 +3844,13 @@
       </c>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H78" s="56"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
         <v>87</v>
       </c>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>89</v>
       </c>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>91</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="L82" s="11"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>93</v>
       </c>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>95</v>
       </c>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>97</v>
       </c>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>100</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="1:12" ht="30">
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>101</v>
       </c>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>104</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>106</v>
       </c>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>107</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:12" ht="30">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>101</v>
       </c>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="L91" s="11"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>104</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>106</v>
       </c>
@@ -4309,13 +4309,13 @@
       </c>
       <c r="L93" s="11"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>109</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="30">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>118</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>128</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>84</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F103" s="28" t="s">
         <v>217</v>
@@ -4609,7 +4609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>125</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>84</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F104" s="28" t="s">
         <v>217</v>
@@ -4641,7 +4641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>126</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>129</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>132</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>134</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30">
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>136</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30">
+    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>138</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="38.25">
+    <row r="112" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
         <v>140</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>143</v>
       </c>
@@ -4926,14 +4926,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H114" s="56"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>109</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30">
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>111</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>118</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="45">
+    <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>128</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>84</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F123" s="28" t="s">
         <v>218</v>
@@ -5227,7 +5227,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>84</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F124" s="28" t="s">
         <v>218</v>
@@ -5259,7 +5259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30">
+    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
         <v>134</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30">
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>138</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="38.25">
+    <row r="133" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
         <v>140</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
         <v>143</v>
       </c>
@@ -5544,13 +5544,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H135" s="56"/>
     </row>
-    <row r="136" spans="1:11" ht="14.45" customHeight="1">
+    <row r="136" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>147</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>151</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>152</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>153</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>154</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>155</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>159</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>160</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>161</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>162</v>
       </c>
@@ -5833,13 +5833,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>163</v>
       </c>
       <c r="H147" s="56"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -5871,13 +5871,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>166</v>
       </c>
       <c r="H149" s="56"/>
     </row>
-    <row r="150" spans="1:11" ht="14.45" customHeight="1">
+    <row r="150" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
@@ -6130,14 +6130,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H161" s="56"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>221</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F162" t="s">
         <v>220</v>
@@ -6166,7 +6166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="30">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>170</v>
       </c>
@@ -6206,10 +6206,10 @@
         <v>14</v>
       </c>
       <c r="D164" t="s">
+        <v>275</v>
+      </c>
+      <c r="E164" s="28" t="s">
         <v>276</v>
-      </c>
-      <c r="E164" s="28" t="s">
-        <v>277</v>
       </c>
       <c r="F164" t="s">
         <v>220</v>
@@ -6224,7 +6224,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>171</v>
       </c>
@@ -6235,10 +6235,10 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F165" t="s">
         <v>220</v>
@@ -6253,7 +6253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="30">
+    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>172</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>174</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="45">
+    <row r="168" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>175</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>178</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>180</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="45">
+    <row r="171" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>182</v>
       </c>
@@ -6412,10 +6412,10 @@
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F171" t="s">
         <v>220</v>
@@ -6433,7 +6433,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>184</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A173" s="34"/>
       <c r="B173" s="34"/>
       <c r="C173" s="34"/>
@@ -6479,7 +6479,7 @@
       <c r="L173" s="34"/>
       <c r="M173" s="34"/>
     </row>
-    <row r="174" spans="1:13" ht="30">
+    <row r="174" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>187</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A175" s="37" t="s">
         <v>26</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="L175" s="34"/>
       <c r="M175" s="34"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="39" t="s">
         <v>12</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="L176" s="34"/>
       <c r="M176" s="34"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
         <v>29</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="L177" s="34"/>
       <c r="M177" s="34"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="L178" s="34"/>
       <c r="M178" s="34"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="L179" s="34"/>
       <c r="M179" s="34"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="L181" s="34"/>
       <c r="M181" s="34"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="L185" s="34"/>
       <c r="M185" s="34"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="L186" s="34"/>
       <c r="M186" s="34"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A187" s="44" t="s">
         <v>35</v>
       </c>
@@ -6957,7 +6957,7 @@
       <c r="L187" s="34"/>
       <c r="M187" s="34"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>38</v>
       </c>
@@ -6992,7 +6992,7 @@
       <c r="L188" s="34"/>
       <c r="M188" s="34"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A189" s="33" t="s">
         <v>40</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="s">
         <v>42</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="L190" s="34"/>
       <c r="M190" s="34"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A191" s="33" t="s">
         <v>44</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="L191" s="34"/>
       <c r="M191" s="34"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A192" s="33" t="s">
         <v>198</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="L192" s="34"/>
       <c r="M192" s="34"/>
     </row>
-    <row r="193" spans="1:13" ht="30">
+    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
         <v>199</v>
       </c>
@@ -7154,7 +7154,7 @@
       <c r="L193" s="34"/>
       <c r="M193" s="34"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A194" s="33" t="s">
         <v>46</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="L194" s="34"/>
       <c r="M194" s="34"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A195" s="33" t="s">
         <v>48</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="L195" s="34"/>
       <c r="M195" s="34"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
         <v>50</v>
       </c>
@@ -7247,7 +7247,7 @@
       <c r="L196" s="34"/>
       <c r="M196" s="34"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>53</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="L197" s="34"/>
       <c r="M197" s="34"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A198" s="37" t="s">
         <v>54</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="L198" s="34"/>
       <c r="M198" s="34"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
         <v>12</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="L199" s="34"/>
       <c r="M199" s="34"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A200" s="33" t="s">
         <v>29</v>
       </c>
@@ -7373,7 +7373,7 @@
       <c r="L200" s="34"/>
       <c r="M200" s="34"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>189</v>
       </c>
@@ -7408,7 +7408,7 @@
       <c r="L201" s="34"/>
       <c r="M201" s="34"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="L202" s="34"/>
       <c r="M202" s="34"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="L203" s="34"/>
       <c r="M203" s="34"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>191</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="L204" s="34"/>
       <c r="M204" s="34"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>192</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="L205" s="34"/>
       <c r="M205" s="34"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="L206" s="34"/>
       <c r="M206" s="34"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>193</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="L207" s="34"/>
       <c r="M207" s="34"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>194</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="L208" s="34"/>
       <c r="M208" s="34"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>195</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="L209" s="34"/>
       <c r="M209" s="34"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A210" s="44" t="s">
         <v>35</v>
       </c>
@@ -7720,7 +7720,7 @@
       <c r="L210" s="34"/>
       <c r="M210" s="34"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="33" t="s">
         <v>38</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="L211" s="34"/>
       <c r="M211" s="34"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A212" s="33" t="s">
         <v>40</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="L212" s="34"/>
       <c r="M212" s="34"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
         <v>42</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="L213" s="34"/>
       <c r="M213" s="34"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A214" s="33" t="s">
         <v>44</v>
       </c>
@@ -7860,7 +7860,7 @@
       <c r="L214" s="34"/>
       <c r="M214" s="34"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A215" s="33" t="s">
         <v>198</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="L215" s="34"/>
       <c r="M215" s="34"/>
     </row>
-    <row r="216" spans="1:13" ht="30">
+    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
         <v>199</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="L216" s="34"/>
       <c r="M216" s="34"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A217" s="33" t="s">
         <v>46</v>
       </c>
@@ -7967,7 +7967,7 @@
       <c r="L217" s="34"/>
       <c r="M217" s="34"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A218" s="33" t="s">
         <v>48</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="L218" s="34"/>
       <c r="M218" s="34"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
         <v>50</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="L219" s="34"/>
       <c r="M219" s="34"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>53</v>
       </c>
@@ -8072,7 +8072,7 @@
       <c r="L220" s="34"/>
       <c r="M220" s="34"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
         <v>55</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="L221" s="34"/>
       <c r="M221" s="34"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="33" t="s">
         <v>56</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="L222" s="34"/>
       <c r="M222" s="34"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="33" t="s">
         <v>59</v>
       </c>
@@ -8159,7 +8159,7 @@
       <c r="L223" s="34"/>
       <c r="M223" s="34"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="33" t="s">
         <v>65</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="L224" s="34"/>
       <c r="M224" s="34"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="33" t="s">
         <v>201</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="L225" s="34"/>
       <c r="M225" s="34"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="33" t="s">
         <v>67</v>
       </c>
@@ -8264,7 +8264,7 @@
       <c r="L226" s="34"/>
       <c r="M226" s="34"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="33" t="s">
         <v>69</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="L227" s="34"/>
       <c r="M227" s="34"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="33" t="s">
         <v>71</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="L228" s="34"/>
       <c r="M228" s="34"/>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="33" t="s">
         <v>73</v>
       </c>
@@ -8369,7 +8369,7 @@
       <c r="L229" s="34"/>
       <c r="M229" s="34"/>
     </row>
-    <row r="230" spans="1:13" ht="30">
+    <row r="230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="33" t="s">
         <v>75</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="L230" s="34"/>
       <c r="M230" s="34"/>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="33" t="s">
         <v>77</v>
       </c>
@@ -8441,7 +8441,7 @@
       <c r="L231" s="34"/>
       <c r="M231" s="34"/>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>80</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="L232" s="34"/>
       <c r="M232" s="34"/>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
         <v>81</v>
       </c>
@@ -8493,7 +8493,7 @@
       <c r="L233" s="34"/>
       <c r="M233" s="34"/>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="33" t="s">
         <v>56</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="L234" s="34"/>
       <c r="M234" s="34"/>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="s">
         <v>59</v>
       </c>
@@ -8563,7 +8563,7 @@
       <c r="L235" s="34"/>
       <c r="M235" s="34"/>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="33" t="s">
         <v>65</v>
       </c>
@@ -8598,7 +8598,7 @@
       <c r="L236" s="34"/>
       <c r="M236" s="34"/>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="33" t="s">
         <v>201</v>
       </c>
@@ -8633,7 +8633,7 @@
       <c r="L237" s="34"/>
       <c r="M237" s="34"/>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="33" t="s">
         <v>67</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="L238" s="34"/>
       <c r="M238" s="34"/>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="33" t="s">
         <v>69</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="L239" s="34"/>
       <c r="M239" s="34"/>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="33" t="s">
         <v>71</v>
       </c>
@@ -8738,7 +8738,7 @@
       <c r="L240" s="34"/>
       <c r="M240" s="34"/>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="33" t="s">
         <v>73</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="L241" s="34"/>
       <c r="M241" s="34"/>
     </row>
-    <row r="242" spans="1:13" ht="30">
+    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="33" t="s">
         <v>75</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="L242" s="34"/>
       <c r="M242" s="34"/>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
         <v>77</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="L243" s="34"/>
       <c r="M243" s="34"/>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>80</v>
       </c>
@@ -8880,7 +8880,7 @@
       <c r="L244" s="34"/>
       <c r="M244" s="34"/>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
         <v>82</v>
       </c>
@@ -8897,7 +8897,7 @@
       <c r="L245" s="34"/>
       <c r="M245" s="34"/>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="44" t="s">
         <v>202</v>
       </c>
@@ -8932,7 +8932,7 @@
       <c r="L246" s="34"/>
       <c r="M246" s="34"/>
     </row>
-    <row r="247" spans="1:13" ht="30">
+    <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="44" t="s">
         <v>264</v>
       </c>
@@ -8967,7 +8967,7 @@
       <c r="L247" s="34"/>
       <c r="M247" s="34"/>
     </row>
-    <row r="248" spans="1:13" ht="30">
+    <row r="248" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="33" t="s">
         <v>83</v>
       </c>
@@ -8996,7 +8996,7 @@
       <c r="L248" s="34"/>
       <c r="M248" s="34"/>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
         <v>205</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="L249" s="34"/>
       <c r="M249" s="34"/>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
         <v>206</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="L250" s="34"/>
       <c r="M250" s="34"/>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
         <v>207</v>
       </c>
@@ -9101,7 +9101,7 @@
       <c r="L251" s="34"/>
       <c r="M251" s="34"/>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="34" t="s">
         <v>208</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="L252" s="34"/>
       <c r="M252" s="34"/>
     </row>
-    <row r="253" spans="1:13" ht="45">
+    <row r="253" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
         <v>87</v>
       </c>
@@ -9171,7 +9171,7 @@
       <c r="L253" s="34"/>
       <c r="M253" s="34"/>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="s">
         <v>89</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="L254" s="34"/>
       <c r="M254" s="34"/>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="s">
         <v>91</v>
       </c>
@@ -9241,7 +9241,7 @@
       <c r="L255" s="34"/>
       <c r="M255" s="34"/>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="33" t="s">
         <v>93</v>
       </c>
@@ -9276,7 +9276,7 @@
       <c r="L256" s="34"/>
       <c r="M256" s="34"/>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="33" t="s">
         <v>211</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="L257" s="34"/>
       <c r="M257" s="34"/>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="46" t="s">
         <v>95</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="L258" s="34"/>
       <c r="M258" s="34"/>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
         <v>97</v>
       </c>
@@ -9381,7 +9381,7 @@
       <c r="L259" s="34"/>
       <c r="M259" s="34"/>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="37" t="s">
         <v>99</v>
       </c>
@@ -9398,7 +9398,7 @@
       <c r="L260" s="34"/>
       <c r="M260" s="34"/>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="44" t="s">
         <v>202</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="L261" s="34"/>
       <c r="M261" s="34"/>
     </row>
-    <row r="262" spans="1:13" ht="30">
+    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="44" t="s">
         <v>203</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="L262" s="34"/>
       <c r="M262" s="34"/>
     </row>
-    <row r="263" spans="1:13" ht="30">
+    <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="33" t="s">
         <v>83</v>
       </c>
@@ -9497,7 +9497,7 @@
       <c r="L263" s="34"/>
       <c r="M263" s="34"/>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="34" t="s">
         <v>205</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="L264" s="34"/>
       <c r="M264" s="34"/>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="34" t="s">
         <v>206</v>
       </c>
@@ -9567,7 +9567,7 @@
       <c r="L265" s="34"/>
       <c r="M265" s="34"/>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
         <v>207</v>
       </c>
@@ -9602,7 +9602,7 @@
       <c r="L266" s="34"/>
       <c r="M266" s="34"/>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="s">
         <v>208</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="L267" s="34"/>
       <c r="M267" s="34"/>
     </row>
-    <row r="268" spans="1:13" ht="45">
+    <row r="268" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="33" t="s">
         <v>87</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="L268" s="34"/>
       <c r="M268" s="34"/>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="44" t="s">
         <v>89</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="L269" s="34"/>
       <c r="M269" s="34"/>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="44" t="s">
         <v>91</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="L270" s="34"/>
       <c r="M270" s="34"/>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="33" t="s">
         <v>93</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="L271" s="34"/>
       <c r="M271" s="34"/>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="33" t="s">
         <v>211</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="L272" s="34"/>
       <c r="M272" s="34"/>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="46" t="s">
         <v>95</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="L273" s="34"/>
       <c r="M273" s="34"/>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="33" t="s">
         <v>97</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="L274" s="34"/>
       <c r="M274" s="34"/>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="47" t="s">
         <v>108</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="L275" s="34"/>
       <c r="M275" s="34"/>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="33" t="s">
         <v>109</v>
       </c>
@@ -9934,7 +9934,7 @@
       <c r="L276" s="34"/>
       <c r="M276" s="34"/>
     </row>
-    <row r="277" spans="1:13" ht="30">
+    <row r="277" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="33" t="s">
         <v>111</v>
       </c>
@@ -9971,7 +9971,7 @@
       <c r="L277" s="34"/>
       <c r="M277" s="34"/>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="33" t="s">
         <v>113</v>
       </c>
@@ -10006,7 +10006,7 @@
       <c r="L278" s="34"/>
       <c r="M278" s="34"/>
     </row>
-    <row r="279" spans="1:13" ht="30">
+    <row r="279" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="33" t="s">
         <v>115</v>
       </c>
@@ -10041,7 +10041,7 @@
       <c r="L279" s="34"/>
       <c r="M279" s="34"/>
     </row>
-    <row r="280" spans="1:13" ht="30">
+    <row r="280" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="33" t="s">
         <v>116</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="L280" s="34"/>
       <c r="M280" s="34"/>
     </row>
-    <row r="281" spans="1:13" ht="30">
+    <row r="281" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="33" t="s">
         <v>118</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="L281" s="34"/>
       <c r="M281" s="34"/>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>213</v>
       </c>
@@ -10150,7 +10150,7 @@
       <c r="L282" s="34"/>
       <c r="M282" s="34"/>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>214</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="L283" s="34"/>
       <c r="M283" s="34"/>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A284" s="33" t="s">
         <v>121</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="L284" s="34"/>
       <c r="M284" s="34"/>
     </row>
-    <row r="285" spans="1:13" ht="30">
+    <row r="285" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="33" t="s">
         <v>123</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="L285" s="34"/>
       <c r="M285" s="34"/>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A286" s="33" t="s">
         <v>128</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>84</v>
       </c>
       <c r="E286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F286" s="36" t="s">
         <v>217</v>
@@ -10292,7 +10292,7 @@
       <c r="L286" s="34"/>
       <c r="M286" s="34"/>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A287" s="33" t="s">
         <v>125</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>84</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F287" s="36" t="s">
         <v>217</v>
@@ -10327,7 +10327,7 @@
       <c r="L287" s="34"/>
       <c r="M287" s="34"/>
     </row>
-    <row r="288" spans="1:13" ht="30">
+    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="33" t="s">
         <v>126</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="L288" s="34"/>
       <c r="M288" s="34"/>
     </row>
-    <row r="289" spans="1:13" ht="30">
+    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="33" t="s">
         <v>129</v>
       </c>
@@ -10401,7 +10401,7 @@
       <c r="L289" s="34"/>
       <c r="M289" s="34"/>
     </row>
-    <row r="290" spans="1:13" ht="30">
+    <row r="290" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="33" t="s">
         <v>131</v>
       </c>
@@ -10438,7 +10438,7 @@
       <c r="L290" s="34"/>
       <c r="M290" s="34"/>
     </row>
-    <row r="291" spans="1:13" ht="30">
+    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="33" t="s">
         <v>132</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="L291" s="34"/>
       <c r="M291" s="34"/>
     </row>
-    <row r="292" spans="1:13" ht="30">
+    <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="33" t="s">
         <v>134</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="L292" s="34"/>
       <c r="M292" s="34"/>
     </row>
-    <row r="293" spans="1:13" ht="30">
+    <row r="293" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="33" t="s">
         <v>136</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="L293" s="34"/>
       <c r="M293" s="34"/>
     </row>
-    <row r="294" spans="1:13" ht="30">
+    <row r="294" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="33" t="s">
         <v>138</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="L294" s="34"/>
       <c r="M294" s="34"/>
     </row>
-    <row r="295" spans="1:13" ht="30">
+    <row r="295" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="33" t="s">
         <v>143</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="L295" s="34"/>
       <c r="M295" s="34"/>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="47" t="s">
         <v>145</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="L296" s="34"/>
       <c r="M296" s="34"/>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="33" t="s">
         <v>109</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="L297" s="34"/>
       <c r="M297" s="34"/>
     </row>
-    <row r="298" spans="1:13" ht="30">
+    <row r="298" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="33" t="s">
         <v>111</v>
       </c>
@@ -10712,7 +10712,7 @@
       <c r="L298" s="34"/>
       <c r="M298" s="34"/>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="33" t="s">
         <v>113</v>
       </c>
@@ -10747,7 +10747,7 @@
       <c r="L299" s="34"/>
       <c r="M299" s="34"/>
     </row>
-    <row r="300" spans="1:13" ht="30">
+    <row r="300" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="33" t="s">
         <v>115</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="L300" s="34"/>
       <c r="M300" s="34"/>
     </row>
-    <row r="301" spans="1:13" ht="30">
+    <row r="301" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="33" t="s">
         <v>116</v>
       </c>
@@ -10819,7 +10819,7 @@
       <c r="L301" s="34"/>
       <c r="M301" s="34"/>
     </row>
-    <row r="302" spans="1:13" ht="30">
+    <row r="302" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="33" t="s">
         <v>118</v>
       </c>
@@ -10856,7 +10856,7 @@
       <c r="L302" s="34"/>
       <c r="M302" s="34"/>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>213</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="L303" s="34"/>
       <c r="M303" s="34"/>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>214</v>
       </c>
@@ -10926,7 +10926,7 @@
       <c r="L304" s="34"/>
       <c r="M304" s="34"/>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A305" s="33" t="s">
         <v>121</v>
       </c>
@@ -10961,7 +10961,7 @@
       <c r="L305" s="34"/>
       <c r="M305" s="34"/>
     </row>
-    <row r="306" spans="1:13" ht="30">
+    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="33" t="s">
         <v>123</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="L306" s="34"/>
       <c r="M306" s="34"/>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A307" s="33" t="s">
         <v>128</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>84</v>
       </c>
       <c r="E307" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F307" s="36" t="s">
         <v>218</v>
@@ -11033,7 +11033,7 @@
       <c r="L307" s="34"/>
       <c r="M307" s="34"/>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A308" s="33" t="s">
         <v>125</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>84</v>
       </c>
       <c r="E308" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F308" s="36" t="s">
         <v>218</v>
@@ -11068,7 +11068,7 @@
       <c r="L308" s="34"/>
       <c r="M308" s="34"/>
     </row>
-    <row r="310" spans="1:13" ht="30">
+    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="33" t="s">
         <v>126</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="L310" s="34"/>
       <c r="M310" s="34"/>
     </row>
-    <row r="311" spans="1:13" ht="30">
+    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="33" t="s">
         <v>129</v>
       </c>
@@ -11142,7 +11142,7 @@
       <c r="L311" s="34"/>
       <c r="M311" s="34"/>
     </row>
-    <row r="312" spans="1:13" ht="30">
+    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="33" t="s">
         <v>131</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="L312" s="34"/>
       <c r="M312" s="34"/>
     </row>
-    <row r="313" spans="1:13" ht="30">
+    <row r="313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="33" t="s">
         <v>132</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="L313" s="34"/>
       <c r="M313" s="34"/>
     </row>
-    <row r="314" spans="1:13" ht="30">
+    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="33" t="s">
         <v>134</v>
       </c>
@@ -11253,7 +11253,7 @@
       <c r="L314" s="34"/>
       <c r="M314" s="34"/>
     </row>
-    <row r="315" spans="1:13" ht="30">
+    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="33" t="s">
         <v>136</v>
       </c>
@@ -11290,7 +11290,7 @@
       <c r="L315" s="34"/>
       <c r="M315" s="34"/>
     </row>
-    <row r="316" spans="1:13" ht="30">
+    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="33" t="s">
         <v>138</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="L316" s="34"/>
       <c r="M316" s="34"/>
     </row>
-    <row r="317" spans="1:13" ht="30">
+    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="33" t="s">
         <v>143</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="L317" s="34"/>
       <c r="M317" s="34"/>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="50" t="s">
         <v>100</v>
       </c>
@@ -11381,7 +11381,7 @@
       <c r="L318" s="34"/>
       <c r="M318" s="34"/>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="44" t="s">
         <v>101</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="L319" s="34"/>
       <c r="M319" s="34"/>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="50" t="s">
         <v>107</v>
       </c>
@@ -11433,7 +11433,7 @@
       <c r="L320" s="34"/>
       <c r="M320" s="34"/>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="44" t="s">
         <v>101</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="L321" s="34"/>
       <c r="M321" s="34"/>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="51" t="s">
         <v>146</v>
       </c>
@@ -11485,7 +11485,7 @@
       <c r="L322" s="34"/>
       <c r="M322" s="34"/>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="39" t="s">
         <v>147</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="L323" s="34"/>
       <c r="M323" s="34"/>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="39" t="s">
         <v>151</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="L324" s="34"/>
       <c r="M324" s="34"/>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="39" t="s">
         <v>152</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="L325" s="34"/>
       <c r="M325" s="34"/>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="39" t="s">
         <v>153</v>
       </c>
@@ -11625,7 +11625,7 @@
       <c r="L326" s="34"/>
       <c r="M326" s="34"/>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="39" t="s">
         <v>154</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="L327" s="34"/>
       <c r="M327" s="34"/>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="39" t="s">
         <v>155</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="L328" s="34"/>
       <c r="M328" s="34"/>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="39" t="s">
         <v>158</v>
       </c>
@@ -11726,7 +11726,7 @@
       <c r="L329" s="34"/>
       <c r="M329" s="34"/>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="52" t="s">
         <v>159</v>
       </c>
@@ -11751,7 +11751,7 @@
       <c r="L330" s="34"/>
       <c r="M330" s="34"/>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="52" t="s">
         <v>160</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="L331" s="34"/>
       <c r="M331" s="34"/>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="52" t="s">
         <v>161</v>
       </c>
@@ -11801,7 +11801,7 @@
       <c r="L332" s="34"/>
       <c r="M332" s="34"/>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="52" t="s">
         <v>162</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="L333" s="34"/>
       <c r="M333" s="34"/>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="53" t="s">
         <v>163</v>
       </c>
@@ -11843,7 +11843,7 @@
       <c r="L334" s="34"/>
       <c r="M334" s="34"/>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="39" t="s">
         <v>164</v>
       </c>
@@ -11878,7 +11878,7 @@
       <c r="L335" s="34"/>
       <c r="M335" s="34"/>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="37" t="s">
         <v>166</v>
       </c>
@@ -11895,7 +11895,7 @@
       <c r="L336" s="34"/>
       <c r="M336" s="34"/>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="39" t="s">
         <v>147</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="L337" s="34"/>
       <c r="M337" s="34"/>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="39" t="s">
         <v>151</v>
       </c>
@@ -11957,7 +11957,7 @@
       <c r="L338" s="34"/>
       <c r="M338" s="34"/>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="39" t="s">
         <v>152</v>
       </c>
@@ -11988,7 +11988,7 @@
       <c r="L339" s="34"/>
       <c r="M339" s="34"/>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="39" t="s">
         <v>153</v>
       </c>
@@ -12019,7 +12019,7 @@
       <c r="L340" s="34"/>
       <c r="M340" s="34"/>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="39" t="s">
         <v>154</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="L341" s="34"/>
       <c r="M341" s="34"/>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="39" t="s">
         <v>155</v>
       </c>
@@ -12083,7 +12083,7 @@
       <c r="L342" s="34"/>
       <c r="M342" s="34"/>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="39" t="s">
         <v>158</v>
       </c>
@@ -12108,7 +12108,7 @@
       <c r="L343" s="34"/>
       <c r="M343" s="34"/>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="52" t="s">
         <v>159</v>
       </c>
@@ -12133,7 +12133,7 @@
       <c r="L344" s="34"/>
       <c r="M344" s="34"/>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="52" t="s">
         <v>160</v>
       </c>
@@ -12158,7 +12158,7 @@
       <c r="L345" s="34"/>
       <c r="M345" s="34"/>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="52" t="s">
         <v>161</v>
       </c>
@@ -12183,7 +12183,7 @@
       <c r="L346" s="34"/>
       <c r="M346" s="34"/>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="52" t="s">
         <v>162</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="L347" s="34"/>
       <c r="M347" s="34"/>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="51" t="s">
         <v>168</v>
       </c>
@@ -12225,7 +12225,7 @@
       <c r="L348" s="34"/>
       <c r="M348" s="34"/>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="39" t="s">
         <v>12</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>221</v>
       </c>
       <c r="E349" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F349" t="s">
         <v>220</v>
@@ -12258,7 +12258,7 @@
       <c r="L349" s="34"/>
       <c r="M349" s="34"/>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="39" t="s">
         <v>17</v>
       </c>
@@ -12291,7 +12291,7 @@
       <c r="L350" s="34"/>
       <c r="M350" s="34"/>
     </row>
-    <row r="351" spans="1:13" ht="30">
+    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="54" t="s">
         <v>172</v>
       </c>
@@ -12324,7 +12324,7 @@
       <c r="L351" s="34"/>
       <c r="M351" s="34"/>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="54" t="s">
         <v>174</v>
       </c>
@@ -12357,7 +12357,7 @@
       <c r="L352" s="34"/>
       <c r="M352" s="34"/>
     </row>
-    <row r="353" spans="1:13" ht="45">
+    <row r="353" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="54" t="s">
         <v>175</v>
       </c>
@@ -12392,7 +12392,7 @@
       <c r="L353" s="34"/>
       <c r="M353" s="34"/>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="54" t="s">
         <v>178</v>
       </c>
@@ -12425,7 +12425,7 @@
       <c r="L354" s="34"/>
       <c r="M354" s="34"/>
     </row>
-    <row r="355" spans="1:13" ht="30">
+    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="54" t="s">
         <v>180</v>
       </c>
@@ -12458,7 +12458,7 @@
       <c r="L355" s="34"/>
       <c r="M355" s="34"/>
     </row>
-    <row r="356" spans="1:13" ht="30">
+    <row r="356" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="54" t="s">
         <v>184</v>
       </c>
@@ -12491,7 +12491,7 @@
       <c r="L356" s="34"/>
       <c r="M356" s="34"/>
     </row>
-    <row r="357" spans="1:13" ht="30">
+    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>170</v>
       </c>
@@ -12502,10 +12502,10 @@
         <v>14</v>
       </c>
       <c r="D357" t="s">
+        <v>275</v>
+      </c>
+      <c r="E357" s="28" t="s">
         <v>276</v>
-      </c>
-      <c r="E357" s="28" t="s">
-        <v>277</v>
       </c>
       <c r="F357" t="s">
         <v>220</v>
@@ -12520,7 +12520,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>171</v>
       </c>
@@ -12531,10 +12531,10 @@
         <v>14</v>
       </c>
       <c r="D358" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E358" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F358" t="s">
         <v>220</v>
@@ -12549,7 +12549,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="45">
+    <row r="359" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>182</v>
       </c>
@@ -12560,10 +12560,10 @@
         <v>14</v>
       </c>
       <c r="D359" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E359" s="28" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F359" t="s">
         <v>220</v>
@@ -12581,9 +12581,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C360" t="s">
         <v>14</v>
@@ -12602,12 +12602,12 @@
         <v>16</v>
       </c>
       <c r="J360" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13">
-      <c r="A361" t="s">
-        <v>283</v>
       </c>
       <c r="C361" t="s">
         <v>14</v>
@@ -12626,12 +12626,12 @@
         <v>16</v>
       </c>
       <c r="J361" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C362" t="s">
         <v>14</v>
@@ -12650,12 +12650,12 @@
         <v>16</v>
       </c>
       <c r="J362" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13">
-      <c r="A363" t="s">
-        <v>283</v>
       </c>
       <c r="C363" t="s">
         <v>14</v>
@@ -12674,7 +12674,7 @@
         <v>16</v>
       </c>
       <c r="J363" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -12702,15 +12702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -12953,7 +12944,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="aeca75af-2390-46f4-9168-0f31f2cf789f" xsi:nil="true"/>
@@ -12964,15 +12955,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01795C61-E9E2-48EE-96A3-3BA6D4830BDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E959EC37-2252-494F-BD4C-49FC9600D78A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12991,7 +12983,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86CC257-B024-4A6F-A87F-47A37230FB94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13000,4 +12992,12 @@
     <ds:schemaRef ds:uri="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01795C61-E9E2-48EE-96A3-3BA6D4830BDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
+++ b/Config Files/AOC_XBRL_100100_nodes_seperated_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1B86EC-1DE7-4144-A29C-585DF6B94E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E89C9B-5901-459A-9627-BB6F2D74B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="285">
   <si>
     <t>Field_Name</t>
   </si>
@@ -633,12 +633,6 @@
     <t>Other_non_current_financial_assets</t>
   </si>
   <si>
-    <t>Loans_non_current+Loans_non_current</t>
-  </si>
-  <si>
-    <t>"Current investments"</t>
-  </si>
-  <si>
     <t>cash_and_cash_equivalents</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>Total_non_current_liabilities</t>
   </si>
   <si>
-    <t>short_term_borrowings+trade_payables+other_non_current_financial_liabilities+total_non_current_financial_liabilities+long_term_provisions+deferred_tax_liabilities_net+other_long_term_liabilities+Total_non_current_liabilities</t>
-  </si>
-  <si>
     <t>tangible_assets+Goodwill+Other_intangible_assets</t>
   </si>
   <si>
@@ -901,13 +892,19 @@
   </si>
   <si>
     <t>Disclosure in auditors report relating to default in repayment of financial dues</t>
+  </si>
+  <si>
+    <t>Loans_non_current+Other non-current financial assets</t>
+  </si>
+  <si>
+    <t>long_term_borrowings+trade_payables_non-current+other_non_current_financial_liabilities+total_non_current_financial_liabilities+long_term_provisions+deferred_tax_liabilities_net+other_long_term_liabilities+Total_non_current_liabilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,7 +1009,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1055,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1159,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1302,6 +1317,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1625,16 +1659,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="78.28515625" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
@@ -1644,7 +1678,7 @@
     <col min="11" max="11" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1661,10 +1695,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1676,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1718,7 @@
       <c r="J2" s="21"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -1692,33 +1726,33 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1729,16 +1763,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>16</v>
@@ -1749,7 +1783,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1760,16 +1794,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>16</v>
@@ -1778,7 +1812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1786,19 +1820,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>16</v>
@@ -1807,7 +1841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="25.5">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1815,16 +1849,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>16</v>
@@ -1833,12 +1867,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1849,16 +1883,16 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>16</v>
@@ -1867,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1878,16 +1912,16 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>16</v>
@@ -1896,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
@@ -1904,19 +1938,19 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>16</v>
@@ -1925,7 +1959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="25.5">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1933,16 +1967,16 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>16</v>
@@ -1951,29 +1985,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2"/>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="62"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="55"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:12" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="33" customFormat="1" ht="30">
       <c r="E15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1984,13 +2018,13 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H17" s="56" t="s">
         <v>27</v>
@@ -2005,7 +2039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2016,13 +2050,13 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>27</v>
@@ -2037,7 +2071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2048,13 +2082,13 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H19" s="56" t="s">
         <v>27</v>
@@ -2069,7 +2103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2080,13 +2114,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>27</v>
@@ -2101,7 +2135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2112,13 +2146,13 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>37</v>
@@ -2136,7 +2170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -2147,13 +2181,13 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H22" s="56" t="s">
         <v>27</v>
@@ -2168,7 +2202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2179,13 +2213,13 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H23" s="56" t="s">
         <v>27</v>
@@ -2200,7 +2234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -2211,13 +2245,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>37</v>
@@ -2235,7 +2269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,13 +2280,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>37</v>
@@ -2270,7 +2304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2281,13 +2315,13 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H26" s="56" t="s">
         <v>27</v>
@@ -2302,7 +2336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -2313,13 +2347,13 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H27" s="56" t="s">
         <v>27</v>
@@ -2334,7 +2368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2345,13 +2379,13 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H28" s="56" t="s">
         <v>27</v>
@@ -2366,7 +2400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2377,13 +2411,13 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H29" s="56" t="s">
         <v>27</v>
@@ -2398,12 +2432,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2414,13 +2448,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="56" t="s">
         <v>27</v>
@@ -2435,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2446,13 +2480,13 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H32" s="56" t="s">
         <v>27</v>
@@ -2467,7 +2501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2478,13 +2512,13 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H33" s="56" t="s">
         <v>27</v>
@@ -2499,7 +2533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2510,13 +2544,13 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H34" s="56" t="s">
         <v>27</v>
@@ -2531,7 +2565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2542,13 +2576,13 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>37</v>
@@ -2566,7 +2600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2577,13 +2611,13 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H36" s="56" t="s">
         <v>27</v>
@@ -2598,7 +2632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2609,13 +2643,13 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H37" s="56" t="s">
         <v>27</v>
@@ -2630,7 +2664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2641,13 +2675,13 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>37</v>
@@ -2665,7 +2699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="30">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -2676,13 +2710,13 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
         <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>37</v>
@@ -2700,7 +2734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -2711,13 +2745,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H40" s="56" t="s">
         <v>27</v>
@@ -2732,7 +2766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2743,13 +2777,13 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H41" s="56" t="s">
         <v>27</v>
@@ -2764,7 +2798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2775,13 +2809,13 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
         <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H42" s="56" t="s">
         <v>27</v>
@@ -2796,7 +2830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -2807,13 +2841,13 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H43" s="56" t="s">
         <v>27</v>
@@ -2828,12 +2862,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -2844,13 +2878,13 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
         <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H45" s="56" t="s">
         <v>27</v>
@@ -2865,7 +2899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -2876,13 +2910,13 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H46" s="56" t="s">
         <v>27</v>
@@ -2897,7 +2931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2908,13 +2942,13 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H47" s="56" t="s">
         <v>27</v>
@@ -2929,7 +2963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="26" t="s">
         <v>63</v>
       </c>
@@ -2940,13 +2974,13 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H48" s="56" t="s">
         <v>27</v>
@@ -2961,7 +2995,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -2972,13 +3006,13 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
         <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H49" s="56" t="s">
         <v>27</v>
@@ -2993,7 +3027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -3004,13 +3038,13 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H50" s="56" t="s">
         <v>27</v>
@@ -3025,7 +3059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -3036,13 +3070,13 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
         <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H51" s="56" t="s">
         <v>27</v>
@@ -3057,7 +3091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -3068,13 +3102,13 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H52" s="56" t="s">
         <v>27</v>
@@ -3089,7 +3123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,13 +3134,13 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
         <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H53" s="56" t="s">
         <v>27</v>
@@ -3121,7 +3155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -3132,13 +3166,13 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
         <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H54" s="56" t="s">
         <v>27</v>
@@ -3153,7 +3187,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -3164,13 +3198,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
         <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H55" s="56" t="s">
         <v>27</v>
@@ -3185,7 +3219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -3196,13 +3230,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
         <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H56" s="56" t="s">
         <v>27</v>
@@ -3217,13 +3251,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="56"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,13 +3268,13 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H58" s="56" t="s">
         <v>27</v>
@@ -3255,7 +3289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3266,13 +3300,13 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
         <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H59" s="56" t="s">
         <v>27</v>
@@ -3287,7 +3321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="30">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -3298,13 +3332,13 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
         <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H60" s="56" t="s">
         <v>27</v>
@@ -3319,7 +3353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="26" t="s">
         <v>63</v>
       </c>
@@ -3330,13 +3364,13 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
         <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H61" s="56" t="s">
         <v>27</v>
@@ -3351,7 +3385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -3362,13 +3396,13 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
         <v>66</v>
       </c>
       <c r="F62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H62" s="56" t="s">
         <v>27</v>
@@ -3383,7 +3417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -3394,13 +3428,13 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
         <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H63" s="56" t="s">
         <v>27</v>
@@ -3415,7 +3449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3426,13 +3460,13 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
         <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H64" s="56" t="s">
         <v>27</v>
@@ -3447,7 +3481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -3458,13 +3492,13 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
         <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H65" s="56" t="s">
         <v>27</v>
@@ -3479,7 +3513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -3490,13 +3524,13 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>
       </c>
       <c r="F66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H66" s="56" t="s">
         <v>27</v>
@@ -3511,7 +3545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3522,13 +3556,13 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E67" t="s">
         <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H67" s="56" t="s">
         <v>27</v>
@@ -3543,7 +3577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -3554,13 +3588,13 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
         <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H68" s="56" t="s">
         <v>27</v>
@@ -3575,7 +3609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>80</v>
       </c>
@@ -3586,13 +3620,13 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E69" t="s">
         <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H69" s="56" t="s">
         <v>27</v>
@@ -3607,13 +3641,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
         <v>83</v>
       </c>
@@ -3630,7 +3664,7 @@
         <v>85</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H71" s="56" t="s">
         <v>27</v>
@@ -3646,7 +3680,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="26" t="s">
         <v>87</v>
       </c>
@@ -3657,13 +3691,13 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E72" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H72" s="56" t="s">
         <v>27</v>
@@ -3679,7 +3713,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="29" t="s">
         <v>89</v>
       </c>
@@ -3690,13 +3724,13 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E73" s="28" t="s">
         <v>90</v>
       </c>
       <c r="F73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H73" s="56" t="s">
         <v>27</v>
@@ -3712,7 +3746,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="29" t="s">
         <v>91</v>
       </c>
@@ -3723,13 +3757,13 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H74" s="56" t="s">
         <v>27</v>
@@ -3745,7 +3779,7 @@
       </c>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="26" t="s">
         <v>93</v>
       </c>
@@ -3756,13 +3790,13 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E75" s="28" t="s">
         <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H75" s="56" t="s">
         <v>27</v>
@@ -3778,7 +3812,7 @@
       </c>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="30" t="s">
         <v>95</v>
       </c>
@@ -3795,7 +3829,7 @@
         <v>96</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H76" s="56" t="s">
         <v>27</v>
@@ -3811,7 +3845,7 @@
       </c>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="26" t="s">
         <v>97</v>
       </c>
@@ -3822,13 +3856,13 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E77" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H77" s="56" t="s">
         <v>27</v>
@@ -3844,13 +3878,13 @@
       </c>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
         <v>99</v>
       </c>
       <c r="H78" s="56"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -3867,7 +3901,7 @@
         <v>85</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H79" s="56" t="s">
         <v>27</v>
@@ -3883,7 +3917,7 @@
       </c>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="26" t="s">
         <v>87</v>
       </c>
@@ -3894,13 +3928,13 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H80" s="56" t="s">
         <v>27</v>
@@ -3916,7 +3950,7 @@
       </c>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="29" t="s">
         <v>89</v>
       </c>
@@ -3927,13 +3961,13 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E81" s="28" t="s">
         <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H81" s="56" t="s">
         <v>27</v>
@@ -3949,7 +3983,7 @@
       </c>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="29" t="s">
         <v>91</v>
       </c>
@@ -3960,13 +3994,13 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E82" s="28" t="s">
         <v>92</v>
       </c>
       <c r="F82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H82" s="56" t="s">
         <v>27</v>
@@ -3982,7 +4016,7 @@
       </c>
       <c r="L82" s="11"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="26" t="s">
         <v>93</v>
       </c>
@@ -3993,13 +4027,13 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E83" s="28" t="s">
         <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H83" s="56" t="s">
         <v>27</v>
@@ -4015,7 +4049,7 @@
       </c>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="30" t="s">
         <v>95</v>
       </c>
@@ -4032,7 +4066,7 @@
         <v>96</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H84" s="56" t="s">
         <v>27</v>
@@ -4048,7 +4082,7 @@
       </c>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="26" t="s">
         <v>97</v>
       </c>
@@ -4059,13 +4093,13 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H85" s="56" t="s">
         <v>27</v>
@@ -4081,7 +4115,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="31" t="s">
         <v>100</v>
       </c>
@@ -4093,7 +4127,7 @@
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="30">
       <c r="A87" s="29" t="s">
         <v>101</v>
       </c>
@@ -4104,13 +4138,13 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>37</v>
@@ -4129,7 +4163,7 @@
       </c>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="29" t="s">
         <v>104</v>
       </c>
@@ -4140,13 +4174,13 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>105</v>
       </c>
       <c r="F88" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H88" s="56" t="s">
         <v>27</v>
@@ -4162,7 +4196,7 @@
       </c>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="29" t="s">
         <v>106</v>
       </c>
@@ -4176,10 +4210,10 @@
         <v>84</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H89" s="56" t="s">
         <v>27</v>
@@ -4195,7 +4229,7 @@
       </c>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="31" t="s">
         <v>107</v>
       </c>
@@ -4207,7 +4241,7 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="30">
       <c r="A91" s="29" t="s">
         <v>101</v>
       </c>
@@ -4218,13 +4252,13 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E91" s="28" t="s">
         <v>102</v>
       </c>
       <c r="F91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>37</v>
@@ -4243,7 +4277,7 @@
       </c>
       <c r="L91" s="11"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="29" t="s">
         <v>104</v>
       </c>
@@ -4254,13 +4288,13 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E92" s="28" t="s">
         <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H92" s="56" t="s">
         <v>27</v>
@@ -4276,7 +4310,7 @@
       </c>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="29" t="s">
         <v>106</v>
       </c>
@@ -4290,10 +4324,10 @@
         <v>84</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H93" s="56" t="s">
         <v>27</v>
@@ -4309,13 +4343,13 @@
       </c>
       <c r="L93" s="11"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="26" t="s">
         <v>109</v>
       </c>
@@ -4329,10 +4363,10 @@
         <v>84</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H95" s="56" t="s">
         <v>27</v>
@@ -4347,7 +4381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="30">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -4358,13 +4392,13 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E96" s="28" t="s">
         <v>112</v>
       </c>
       <c r="F96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>37</v>
@@ -4382,7 +4416,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -4393,13 +4427,13 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E97" t="s">
         <v>114</v>
       </c>
       <c r="F97" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H97" s="56" t="s">
         <v>27</v>
@@ -4414,7 +4448,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -4425,13 +4459,13 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F98" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H98" s="56" t="s">
         <v>27</v>
@@ -4446,7 +4480,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -4457,13 +4491,13 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>117</v>
       </c>
       <c r="F99" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H99" s="56" t="s">
         <v>27</v>
@@ -4478,7 +4512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="30">
       <c r="A100" s="26" t="s">
         <v>118</v>
       </c>
@@ -4489,13 +4523,13 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E100" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F100" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>120</v>
@@ -4513,7 +4547,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -4524,13 +4558,13 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E101" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F101" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H101" s="56" t="s">
         <v>27</v>
@@ -4545,7 +4579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
         <v>123</v>
       </c>
@@ -4556,13 +4590,13 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>124</v>
       </c>
       <c r="F102" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H102" s="56" t="s">
         <v>27</v>
@@ -4577,7 +4611,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="45">
       <c r="A103" s="26" t="s">
         <v>128</v>
       </c>
@@ -4591,10 +4625,10 @@
         <v>84</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F103" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H103" s="56" t="s">
         <v>27</v>
@@ -4609,7 +4643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
         <v>125</v>
       </c>
@@ -4623,10 +4657,10 @@
         <v>84</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H104" s="56" t="s">
         <v>27</v>
@@ -4641,7 +4675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
         <v>126</v>
       </c>
@@ -4652,13 +4686,13 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E105" s="28" t="s">
         <v>127</v>
       </c>
       <c r="F105" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H105" s="56" t="s">
         <v>27</v>
@@ -4673,7 +4707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="30">
       <c r="A106" s="1" t="s">
         <v>129</v>
       </c>
@@ -4684,13 +4718,13 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E106" s="28" t="s">
         <v>130</v>
       </c>
       <c r="F106" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H106" s="56" t="s">
         <v>27</v>
@@ -4705,7 +4739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -4716,10 +4750,10 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F107" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H107" s="56" t="s">
         <v>27</v>
@@ -4734,7 +4768,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
         <v>132</v>
       </c>
@@ -4745,13 +4779,13 @@
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E108" s="28" t="s">
         <v>133</v>
       </c>
       <c r="F108" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H108" s="56" t="s">
         <v>27</v>
@@ -4766,7 +4800,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="26" t="s">
         <v>134</v>
       </c>
@@ -4777,13 +4811,13 @@
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>135</v>
       </c>
       <c r="F109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H109" s="56" t="s">
         <v>27</v>
@@ -4798,7 +4832,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30">
       <c r="A110" s="1" t="s">
         <v>136</v>
       </c>
@@ -4809,13 +4843,13 @@
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H110" s="56" t="s">
         <v>27</v>
@@ -4830,7 +4864,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="30">
       <c r="A111" s="1" t="s">
         <v>138</v>
       </c>
@@ -4841,13 +4875,13 @@
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E111" s="28" t="s">
         <v>139</v>
       </c>
       <c r="F111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H111" s="56" t="s">
         <v>27</v>
@@ -4862,7 +4896,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="38.25">
       <c r="A112" s="29" t="s">
         <v>140</v>
       </c>
@@ -4873,13 +4907,13 @@
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H112" s="56" t="s">
         <v>27</v>
@@ -4894,7 +4928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="26" t="s">
         <v>143</v>
       </c>
@@ -4905,13 +4939,13 @@
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E113" s="28" t="s">
         <v>144</v>
       </c>
       <c r="F113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H113" s="56" t="s">
         <v>27</v>
@@ -4926,14 +4960,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H114" s="56"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="26" t="s">
         <v>109</v>
       </c>
@@ -4947,10 +4981,10 @@
         <v>84</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H115" s="56" t="s">
         <v>27</v>
@@ -4965,7 +4999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="30">
       <c r="A116" s="1" t="s">
         <v>111</v>
       </c>
@@ -4976,13 +5010,13 @@
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E116" s="28" t="s">
         <v>112</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" s="28" t="s">
         <v>37</v>
@@ -5000,7 +5034,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
@@ -5011,13 +5045,13 @@
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E117" t="s">
         <v>114</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H117" s="56" t="s">
         <v>27</v>
@@ -5032,7 +5066,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30">
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
@@ -5043,13 +5077,13 @@
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H118" s="56" t="s">
         <v>27</v>
@@ -5064,7 +5098,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
@@ -5075,13 +5109,13 @@
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>117</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H119" s="56" t="s">
         <v>27</v>
@@ -5096,7 +5130,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30">
       <c r="A120" s="26" t="s">
         <v>118</v>
       </c>
@@ -5107,13 +5141,13 @@
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G120" s="28" t="s">
         <v>120</v>
@@ -5131,7 +5165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -5142,13 +5176,13 @@
         <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H121" s="56" t="s">
         <v>27</v>
@@ -5163,7 +5197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -5174,13 +5208,13 @@
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E122" s="28" t="s">
         <v>124</v>
       </c>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H122" s="56" t="s">
         <v>27</v>
@@ -5195,7 +5229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="45">
       <c r="A123" s="26" t="s">
         <v>128</v>
       </c>
@@ -5209,10 +5243,10 @@
         <v>84</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H123" s="56" t="s">
         <v>27</v>
@@ -5227,7 +5261,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -5241,10 +5275,10 @@
         <v>84</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F124" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H124" s="56" t="s">
         <v>27</v>
@@ -5259,7 +5293,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -5270,13 +5304,13 @@
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E125" s="28" t="s">
         <v>127</v>
       </c>
       <c r="F125" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H125" s="56" t="s">
         <v>27</v>
@@ -5291,7 +5325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="30">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -5302,13 +5336,13 @@
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>130</v>
       </c>
       <c r="F127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H127" s="56" t="s">
         <v>27</v>
@@ -5323,7 +5357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -5334,10 +5368,10 @@
         <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F128" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H128" s="56" t="s">
         <v>27</v>
@@ -5352,7 +5386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -5363,13 +5397,13 @@
         <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E129" s="28" t="s">
         <v>133</v>
       </c>
       <c r="F129" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H129" s="56" t="s">
         <v>27</v>
@@ -5384,7 +5418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="26" t="s">
         <v>134</v>
       </c>
@@ -5395,13 +5429,13 @@
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E130" s="28" t="s">
         <v>135</v>
       </c>
       <c r="F130" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H130" s="56" t="s">
         <v>27</v>
@@ -5416,7 +5450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
@@ -5427,13 +5461,13 @@
         <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E131" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F131" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H131" s="56" t="s">
         <v>27</v>
@@ -5448,7 +5482,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="30">
       <c r="A132" s="1" t="s">
         <v>138</v>
       </c>
@@ -5459,13 +5493,13 @@
         <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E132" s="28" t="s">
         <v>139</v>
       </c>
       <c r="F132" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H132" s="56" t="s">
         <v>27</v>
@@ -5480,7 +5514,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="38.25">
       <c r="A133" s="29" t="s">
         <v>140</v>
       </c>
@@ -5491,13 +5525,13 @@
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E133" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F133" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H133" s="56" t="s">
         <v>27</v>
@@ -5512,7 +5546,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="26" t="s">
         <v>143</v>
       </c>
@@ -5523,13 +5557,13 @@
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E134" s="28" t="s">
         <v>144</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H134" s="56" t="s">
         <v>27</v>
@@ -5544,13 +5578,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="5" t="s">
         <v>146</v>
       </c>
       <c r="H135" s="56"/>
     </row>
-    <row r="136" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="14.45" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>147</v>
       </c>
@@ -5561,13 +5595,13 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H136" s="56" t="s">
         <v>27</v>
@@ -5582,7 +5616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="1" t="s">
         <v>151</v>
       </c>
@@ -5593,13 +5627,13 @@
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G137" s="11"/>
       <c r="H137" s="56" t="s">
@@ -5615,7 +5649,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="1" t="s">
         <v>152</v>
       </c>
@@ -5626,13 +5660,13 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
+        <v>264</v>
+      </c>
+      <c r="E138" t="s">
         <v>267</v>
       </c>
-      <c r="E138" t="s">
-        <v>270</v>
-      </c>
       <c r="F138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="56" t="s">
@@ -5648,7 +5682,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="1" t="s">
         <v>153</v>
       </c>
@@ -5659,13 +5693,13 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="56" t="s">
@@ -5681,7 +5715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="1" t="s">
         <v>154</v>
       </c>
@@ -5692,13 +5726,13 @@
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="56" t="s">
@@ -5714,7 +5748,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="1" t="s">
         <v>155</v>
       </c>
@@ -5725,15 +5759,15 @@
         <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>219</v>
-      </c>
-      <c r="G141" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G141" s="70" t="s">
         <v>156</v>
       </c>
       <c r="H141" s="56" t="s">
@@ -5749,7 +5783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -5760,20 +5794,20 @@
         <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>219</v>
-      </c>
-      <c r="G142" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G142" s="70"/>
       <c r="H142" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="3" t="s">
         <v>159</v>
       </c>
@@ -5781,14 +5815,14 @@
         <v>148</v>
       </c>
       <c r="F143" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G143" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G143" s="70"/>
       <c r="H143" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="3" t="s">
         <v>160</v>
       </c>
@@ -5796,14 +5830,14 @@
         <v>148</v>
       </c>
       <c r="F144" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G144" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G144" s="70"/>
       <c r="H144" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="3" t="s">
         <v>161</v>
       </c>
@@ -5811,14 +5845,14 @@
         <v>148</v>
       </c>
       <c r="F145" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G145" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G145" s="70"/>
       <c r="H145" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="3" t="s">
         <v>162</v>
       </c>
@@ -5826,20 +5860,20 @@
         <v>148</v>
       </c>
       <c r="F146" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G146" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G146" s="70"/>
       <c r="H146" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="6" t="s">
         <v>163</v>
       </c>
       <c r="H147" s="56"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="1" t="s">
         <v>164</v>
       </c>
@@ -5850,13 +5884,13 @@
         <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F148" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H148" s="56" t="s">
         <v>27</v>
@@ -5871,13 +5905,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="32" t="s">
         <v>166</v>
       </c>
       <c r="H149" s="56"/>
     </row>
-    <row r="150" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="14.45" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
@@ -5888,7 +5922,7 @@
         <v>149</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H150" s="56" t="s">
         <v>27</v>
@@ -5903,7 +5937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -5914,7 +5948,7 @@
         <v>149</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="56" t="s">
@@ -5930,7 +5964,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
@@ -5941,7 +5975,7 @@
         <v>149</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="56" t="s">
@@ -5957,7 +5991,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
@@ -5968,7 +6002,7 @@
         <v>149</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="56" t="s">
@@ -5984,7 +6018,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -5995,7 +6029,7 @@
         <v>149</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="56" t="s">
@@ -6011,7 +6045,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -6022,9 +6056,9 @@
         <v>149</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G155" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G155" s="70" t="s">
         <v>156</v>
       </c>
       <c r="H155" s="56" t="s">
@@ -6040,7 +6074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
@@ -6051,14 +6085,14 @@
         <v>149</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G156" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G156" s="70"/>
       <c r="H156" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
@@ -6069,14 +6103,14 @@
         <v>149</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G157" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G157" s="70"/>
       <c r="H157" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
@@ -6087,14 +6121,14 @@
         <v>149</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G158" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G158" s="70"/>
       <c r="H158" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
@@ -6105,14 +6139,14 @@
         <v>149</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G159" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G159" s="70"/>
       <c r="H159" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
@@ -6123,21 +6157,21 @@
         <v>149</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G160" s="61"/>
+        <v>216</v>
+      </c>
+      <c r="G160" s="70"/>
       <c r="H160" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="5" t="s">
         <v>168</v>
       </c>
       <c r="H161" s="56"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -6148,13 +6182,13 @@
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F162" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H162" s="56" t="s">
         <v>27</v>
@@ -6166,7 +6200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -6177,13 +6211,13 @@
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E163" s="19" t="s">
         <v>18</v>
       </c>
       <c r="F163" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H163" s="56" t="s">
         <v>27</v>
@@ -6195,7 +6229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="30">
       <c r="A164" s="2" t="s">
         <v>170</v>
       </c>
@@ -6206,13 +6240,13 @@
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F164" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H164" s="56" t="s">
         <v>27</v>
@@ -6224,7 +6258,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" s="2" t="s">
         <v>171</v>
       </c>
@@ -6235,13 +6269,13 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F165" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H165" s="56" t="s">
         <v>27</v>
@@ -6253,7 +6287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="30">
       <c r="A166" s="2" t="s">
         <v>172</v>
       </c>
@@ -6264,13 +6298,13 @@
         <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E166" t="s">
         <v>173</v>
       </c>
       <c r="F166" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H166" s="56" t="s">
         <v>27</v>
@@ -6282,7 +6316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" s="2" t="s">
         <v>174</v>
       </c>
@@ -6293,13 +6327,13 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E167" t="s">
         <v>117</v>
       </c>
       <c r="F167" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H167" s="56" t="s">
         <v>27</v>
@@ -6311,7 +6345,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="45">
       <c r="A168" s="2" t="s">
         <v>175</v>
       </c>
@@ -6322,13 +6356,13 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E168" t="s">
         <v>176</v>
       </c>
       <c r="F168" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G168" s="28" t="s">
         <v>177</v>
@@ -6343,7 +6377,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" s="7" t="s">
         <v>178</v>
       </c>
@@ -6354,13 +6388,13 @@
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E169" t="s">
         <v>179</v>
       </c>
       <c r="F169" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H169" s="56" t="s">
         <v>27</v>
@@ -6372,7 +6406,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="30">
       <c r="A170" s="7" t="s">
         <v>180</v>
       </c>
@@ -6383,13 +6417,13 @@
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E170" t="s">
         <v>181</v>
       </c>
       <c r="F170" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H170" s="56" t="s">
         <v>27</v>
@@ -6401,7 +6435,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="45">
       <c r="A171" s="10" t="s">
         <v>182</v>
       </c>
@@ -6412,13 +6446,13 @@
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F171" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G171" s="28" t="s">
         <v>183</v>
@@ -6433,7 +6467,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="30">
       <c r="A172" s="8" t="s">
         <v>184</v>
       </c>
@@ -6444,13 +6478,13 @@
         <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E172" t="s">
         <v>185</v>
       </c>
       <c r="F172" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H172" s="56" t="s">
         <v>27</v>
@@ -6462,14 +6496,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173" s="34"/>
       <c r="B173" s="34"/>
       <c r="C173" s="34"/>
-      <c r="D173" s="63" t="s">
+      <c r="D173" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E173" s="63"/>
+      <c r="E173" s="72"/>
       <c r="F173" s="35"/>
       <c r="G173" s="36"/>
       <c r="H173" s="36"/>
@@ -6479,7 +6513,7 @@
       <c r="L173" s="34"/>
       <c r="M173" s="34"/>
     </row>
-    <row r="174" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="30">
       <c r="A174" s="33" t="s">
         <v>187</v>
       </c>
@@ -6516,7 +6550,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175" s="37" t="s">
         <v>26</v>
       </c>
@@ -6537,7 +6571,7 @@
       <c r="L175" s="34"/>
       <c r="M175" s="34"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" s="39" t="s">
         <v>12</v>
       </c>
@@ -6548,13 +6582,13 @@
         <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G176" s="34"/>
       <c r="H176" s="56" t="s">
@@ -6572,7 +6606,7 @@
       <c r="L176" s="34"/>
       <c r="M176" s="34"/>
     </row>
-    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177" s="33" t="s">
         <v>29</v>
       </c>
@@ -6583,13 +6617,13 @@
         <v>14</v>
       </c>
       <c r="D177" t="s">
+        <v>218</v>
+      </c>
+      <c r="E177" t="s">
         <v>221</v>
       </c>
-      <c r="E177" t="s">
-        <v>224</v>
-      </c>
       <c r="F177" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G177" s="36"/>
       <c r="H177" s="56" t="s">
@@ -6607,7 +6641,7 @@
       <c r="L177" s="34"/>
       <c r="M177" s="34"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -6618,13 +6652,13 @@
         <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E178" t="s">
         <v>189</v>
       </c>
       <c r="F178" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G178" s="34"/>
       <c r="H178" s="56" t="s">
@@ -6642,7 +6676,7 @@
       <c r="L178" s="34"/>
       <c r="M178" s="34"/>
     </row>
-    <row r="179" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
         <v>190</v>
       </c>
@@ -6653,13 +6687,13 @@
         <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E179" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F179" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G179" s="36"/>
       <c r="H179" s="56" t="s">
@@ -6677,7 +6711,7 @@
       <c r="L179" s="34"/>
       <c r="M179" s="34"/>
     </row>
-    <row r="180" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -6691,10 +6725,10 @@
         <v>84</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F180" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G180" s="34"/>
       <c r="H180" s="56" t="s">
@@ -6712,7 +6746,7 @@
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
     </row>
-    <row r="181" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
         <v>191</v>
       </c>
@@ -6723,13 +6757,13 @@
         <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E181" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F181" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G181" s="36"/>
       <c r="H181" s="56" t="s">
@@ -6747,7 +6781,7 @@
       <c r="L181" s="34"/>
       <c r="M181" s="34"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
         <v>192</v>
       </c>
@@ -6758,13 +6792,13 @@
         <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E182" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F182" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G182" s="34"/>
       <c r="H182" s="56" t="s">
@@ -6782,7 +6816,7 @@
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
     </row>
-    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -6793,13 +6827,13 @@
         <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E183" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F183" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G183" s="36"/>
       <c r="H183" s="56" t="s">
@@ -6817,7 +6851,7 @@
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -6828,13 +6862,13 @@
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E184" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F184" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G184" s="34"/>
       <c r="H184" s="56" t="s">
@@ -6852,7 +6886,7 @@
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -6863,13 +6897,13 @@
         <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E185" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F185" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G185" s="34"/>
       <c r="H185" s="56" t="s">
@@ -6887,7 +6921,7 @@
       <c r="L185" s="34"/>
       <c r="M185" s="34"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -6898,13 +6932,13 @@
         <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E186" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F186" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G186" s="34"/>
       <c r="H186" s="56" t="s">
@@ -6922,24 +6956,24 @@
       <c r="L186" s="34"/>
       <c r="M186" s="34"/>
     </row>
-    <row r="187" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A187" s="44" t="s">
+    <row r="187" spans="1:13">
+      <c r="A187" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B187" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="34" t="s">
+      <c r="B187" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E187" s="34" t="s">
-        <v>196</v>
+      <c r="E187" s="62" t="s">
+        <v>283</v>
       </c>
       <c r="F187" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G187" s="36"/>
       <c r="H187" s="56" t="s">
@@ -6957,7 +6991,7 @@
       <c r="L187" s="34"/>
       <c r="M187" s="34"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" s="33" t="s">
         <v>38</v>
       </c>
@@ -6968,13 +7002,13 @@
         <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E188" t="s">
         <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G188" s="34"/>
       <c r="H188" s="56" t="s">
@@ -6992,24 +7026,24 @@
       <c r="L188" s="34"/>
       <c r="M188" s="34"/>
     </row>
-    <row r="189" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="33" t="s">
+    <row r="189" spans="1:13">
+      <c r="A189" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B189" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" t="s">
-        <v>221</v>
-      </c>
-      <c r="E189" s="34" t="s">
-        <v>197</v>
+      <c r="B189" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E189" s="62" t="s">
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G189" s="36"/>
       <c r="I189" s="40" t="s">
@@ -7024,7 +7058,7 @@
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" s="44" t="s">
         <v>42</v>
       </c>
@@ -7035,13 +7069,13 @@
         <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E190" t="s">
         <v>43</v>
       </c>
       <c r="F190" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G190" s="34"/>
       <c r="H190" s="56" t="s">
@@ -7059,8 +7093,8 @@
       <c r="L190" s="34"/>
       <c r="M190" s="34"/>
     </row>
-    <row r="191" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A191" s="33" t="s">
+    <row r="191" spans="1:13">
+      <c r="A191" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B191" s="34" t="s">
@@ -7070,29 +7104,33 @@
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E191" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F191" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G191" s="36"/>
       <c r="H191" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I191" s="34"/>
-      <c r="J191" s="34"/>
+      <c r="I191" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="K191" s="33" t="s">
         <v>44</v>
       </c>
       <c r="L191" s="34"/>
       <c r="M191" s="34"/>
     </row>
-    <row r="192" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B192" s="34" t="s">
         <v>13</v>
@@ -7101,29 +7139,33 @@
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E192" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F192" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G192" s="36"/>
       <c r="H192" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I192" s="34"/>
-      <c r="J192" s="34"/>
+      <c r="I192" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="K192" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L192" s="34"/>
       <c r="M192" s="34"/>
     </row>
-    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="30">
       <c r="A193" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B193" s="34" t="s">
         <v>13</v>
@@ -7132,13 +7174,13 @@
         <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E193" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F193" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G193" s="45" t="s">
         <v>37</v>
@@ -7146,16 +7188,20 @@
       <c r="H193" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I193" s="34"/>
-      <c r="J193" s="34"/>
+      <c r="I193" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="K193" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L193" s="34"/>
       <c r="M193" s="34"/>
     </row>
-    <row r="194" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A194" s="33" t="s">
+    <row r="194" spans="1:13">
+      <c r="A194" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="34" t="s">
@@ -7168,25 +7214,29 @@
         <v>84</v>
       </c>
       <c r="E194" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F194" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G194" s="34"/>
       <c r="H194" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I194" s="34"/>
-      <c r="J194" s="34"/>
+      <c r="I194" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="K194" s="42" t="s">
         <v>46</v>
       </c>
       <c r="L194" s="34"/>
       <c r="M194" s="34"/>
     </row>
-    <row r="195" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A195" s="33" t="s">
+    <row r="195" spans="1:13">
+      <c r="A195" s="60" t="s">
         <v>48</v>
       </c>
       <c r="B195" s="34" t="s">
@@ -7196,28 +7246,32 @@
         <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E195" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F195" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G195" s="36"/>
       <c r="H195" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I195" s="34"/>
-      <c r="J195" s="34"/>
+      <c r="I195" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="K195" s="42" t="s">
         <v>48</v>
       </c>
       <c r="L195" s="34"/>
       <c r="M195" s="34"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="33" t="s">
+    <row r="196" spans="1:13">
+      <c r="A196" s="60" t="s">
         <v>50</v>
       </c>
       <c r="B196" s="34" t="s">
@@ -7227,27 +7281,31 @@
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E196" t="s">
         <v>51</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G196" s="34"/>
       <c r="H196" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I196" s="34"/>
-      <c r="J196" s="34"/>
+      <c r="I196" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="K196" s="42" t="s">
         <v>50</v>
       </c>
       <c r="L196" s="34"/>
       <c r="M196" s="34"/>
     </row>
-    <row r="197" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
         <v>53</v>
       </c>
@@ -7258,13 +7316,13 @@
         <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E197" t="s">
         <v>52</v>
       </c>
       <c r="F197" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G197" s="36"/>
       <c r="H197" s="56" t="s">
@@ -7282,7 +7340,7 @@
       <c r="L197" s="34"/>
       <c r="M197" s="34"/>
     </row>
-    <row r="198" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198" s="37" t="s">
         <v>54</v>
       </c>
@@ -7303,7 +7361,7 @@
       <c r="L198" s="34"/>
       <c r="M198" s="34"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" s="39" t="s">
         <v>12</v>
       </c>
@@ -7314,13 +7372,13 @@
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
       </c>
       <c r="F199" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G199" s="34"/>
       <c r="H199" s="56" t="s">
@@ -7338,7 +7396,7 @@
       <c r="L199" s="34"/>
       <c r="M199" s="34"/>
     </row>
-    <row r="200" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13">
       <c r="A200" s="33" t="s">
         <v>29</v>
       </c>
@@ -7349,13 +7407,13 @@
         <v>14</v>
       </c>
       <c r="D200" t="s">
+        <v>218</v>
+      </c>
+      <c r="E200" t="s">
         <v>221</v>
       </c>
-      <c r="E200" t="s">
-        <v>224</v>
-      </c>
       <c r="F200" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G200" s="36"/>
       <c r="H200" s="56" t="s">
@@ -7373,7 +7431,7 @@
       <c r="L200" s="34"/>
       <c r="M200" s="34"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
         <v>189</v>
       </c>
@@ -7384,13 +7442,13 @@
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E201" t="s">
         <v>189</v>
       </c>
       <c r="F201" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G201" s="34"/>
       <c r="H201" s="56" t="s">
@@ -7408,7 +7466,7 @@
       <c r="L201" s="34"/>
       <c r="M201" s="34"/>
     </row>
-    <row r="202" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -7419,13 +7477,13 @@
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E202" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F202" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G202" s="36"/>
       <c r="H202" s="56" t="s">
@@ -7443,7 +7501,7 @@
       <c r="L202" s="34"/>
       <c r="M202" s="34"/>
     </row>
-    <row r="203" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -7457,10 +7515,10 @@
         <v>84</v>
       </c>
       <c r="E203" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F203" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G203" s="34"/>
       <c r="I203" s="40" t="s">
@@ -7475,7 +7533,7 @@
       <c r="L203" s="34"/>
       <c r="M203" s="34"/>
     </row>
-    <row r="204" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
         <v>191</v>
       </c>
@@ -7486,13 +7544,13 @@
         <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E204" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F204" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G204" s="36"/>
       <c r="H204" s="56" t="s">
@@ -7510,7 +7568,7 @@
       <c r="L204" s="34"/>
       <c r="M204" s="34"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
         <v>192</v>
       </c>
@@ -7521,13 +7579,13 @@
         <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E205" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F205" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G205" s="34"/>
       <c r="H205" s="56" t="s">
@@ -7545,7 +7603,7 @@
       <c r="L205" s="34"/>
       <c r="M205" s="34"/>
     </row>
-    <row r="206" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -7556,13 +7614,13 @@
         <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E206" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F206" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G206" s="36"/>
       <c r="H206" s="56" t="s">
@@ -7580,7 +7638,7 @@
       <c r="L206" s="34"/>
       <c r="M206" s="34"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
         <v>193</v>
       </c>
@@ -7591,13 +7649,13 @@
         <v>14</v>
       </c>
       <c r="D207" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E207" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F207" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G207" s="34"/>
       <c r="H207" s="56" t="s">
@@ -7615,7 +7673,7 @@
       <c r="L207" s="34"/>
       <c r="M207" s="34"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
         <v>194</v>
       </c>
@@ -7626,13 +7684,13 @@
         <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E208" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F208" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G208" s="34"/>
       <c r="H208" s="56" t="s">
@@ -7650,7 +7708,7 @@
       <c r="L208" s="34"/>
       <c r="M208" s="34"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
         <v>195</v>
       </c>
@@ -7661,13 +7719,13 @@
         <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E209" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F209" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G209" s="34"/>
       <c r="H209" s="56" t="s">
@@ -7685,7 +7743,7 @@
       <c r="L209" s="34"/>
       <c r="M209" s="34"/>
     </row>
-    <row r="210" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210" s="44" t="s">
         <v>35</v>
       </c>
@@ -7698,11 +7756,11 @@
       <c r="D210" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E210" s="34" t="s">
-        <v>196</v>
+      <c r="E210" s="62" t="s">
+        <v>283</v>
       </c>
       <c r="F210" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G210" s="36"/>
       <c r="H210" s="56" t="s">
@@ -7720,7 +7778,7 @@
       <c r="L210" s="34"/>
       <c r="M210" s="34"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" s="33" t="s">
         <v>38</v>
       </c>
@@ -7731,13 +7789,13 @@
         <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E211" t="s">
         <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G211" s="34"/>
       <c r="H211" s="56" t="s">
@@ -7755,7 +7813,7 @@
       <c r="L211" s="34"/>
       <c r="M211" s="34"/>
     </row>
-    <row r="212" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13">
       <c r="A212" s="33" t="s">
         <v>40</v>
       </c>
@@ -7766,13 +7824,13 @@
         <v>14</v>
       </c>
       <c r="D212" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E212" t="s">
         <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G212" s="36"/>
       <c r="H212" s="56" t="s">
@@ -7790,7 +7848,7 @@
       <c r="L212" s="34"/>
       <c r="M212" s="34"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" s="44" t="s">
         <v>42</v>
       </c>
@@ -7801,13 +7859,13 @@
         <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E213" t="s">
         <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G213" s="34"/>
       <c r="H213" s="56" t="s">
@@ -7825,7 +7883,7 @@
       <c r="L213" s="34"/>
       <c r="M213" s="34"/>
     </row>
-    <row r="214" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214" s="33" t="s">
         <v>44</v>
       </c>
@@ -7836,13 +7894,13 @@
         <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F214" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G214" s="36"/>
       <c r="H214" s="56" t="s">
@@ -7860,9 +7918,9 @@
       <c r="L214" s="34"/>
       <c r="M214" s="34"/>
     </row>
-    <row r="215" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13">
       <c r="A215" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B215" s="34" t="s">
         <v>13</v>
@@ -7871,13 +7929,13 @@
         <v>14</v>
       </c>
       <c r="D215" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F215" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G215" s="36"/>
       <c r="H215" s="56" t="s">
@@ -7890,14 +7948,14 @@
         <v>28</v>
       </c>
       <c r="K215" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L215" s="34"/>
       <c r="M215" s="34"/>
     </row>
-    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="30">
       <c r="A216" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B216" s="34" t="s">
         <v>13</v>
@@ -7906,13 +7964,13 @@
         <v>14</v>
       </c>
       <c r="D216" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E216" s="34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F216" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G216" s="45" t="s">
         <v>37</v>
@@ -7927,12 +7985,12 @@
         <v>28</v>
       </c>
       <c r="K216" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L216" s="34"/>
       <c r="M216" s="34"/>
     </row>
-    <row r="217" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13">
       <c r="A217" s="33" t="s">
         <v>46</v>
       </c>
@@ -7946,10 +8004,10 @@
         <v>84</v>
       </c>
       <c r="E217" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F217" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G217" s="34"/>
       <c r="H217" s="56" t="s">
@@ -7967,7 +8025,7 @@
       <c r="L217" s="34"/>
       <c r="M217" s="34"/>
     </row>
-    <row r="218" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13">
       <c r="A218" s="33" t="s">
         <v>48</v>
       </c>
@@ -7978,13 +8036,13 @@
         <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E218" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F218" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G218" s="36"/>
       <c r="H218" s="56" t="s">
@@ -8002,7 +8060,7 @@
       <c r="L218" s="34"/>
       <c r="M218" s="34"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" s="33" t="s">
         <v>50</v>
       </c>
@@ -8013,13 +8071,13 @@
         <v>14</v>
       </c>
       <c r="D219" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E219" t="s">
         <v>51</v>
       </c>
       <c r="F219" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G219" s="34"/>
       <c r="H219" s="56" t="s">
@@ -8037,7 +8095,7 @@
       <c r="L219" s="34"/>
       <c r="M219" s="34"/>
     </row>
-    <row r="220" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
         <v>53</v>
       </c>
@@ -8048,13 +8106,13 @@
         <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E220" t="s">
         <v>52</v>
       </c>
       <c r="F220" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G220" s="36"/>
       <c r="H220" s="56" t="s">
@@ -8072,7 +8130,7 @@
       <c r="L220" s="34"/>
       <c r="M220" s="34"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" s="37" t="s">
         <v>55</v>
       </c>
@@ -8089,7 +8147,7 @@
       <c r="L221" s="34"/>
       <c r="M221" s="34"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" s="33" t="s">
         <v>56</v>
       </c>
@@ -8100,13 +8158,13 @@
         <v>14</v>
       </c>
       <c r="D222" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E222" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F222" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G222" s="34"/>
       <c r="H222" s="56" t="s">
@@ -8124,7 +8182,7 @@
       <c r="L222" s="34"/>
       <c r="M222" s="34"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" s="33" t="s">
         <v>59</v>
       </c>
@@ -8135,13 +8193,13 @@
         <v>14</v>
       </c>
       <c r="D223" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E223" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F223" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G223" s="34"/>
       <c r="H223" s="56" t="s">
@@ -8159,7 +8217,7 @@
       <c r="L223" s="34"/>
       <c r="M223" s="34"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" s="33" t="s">
         <v>65</v>
       </c>
@@ -8170,13 +8228,13 @@
         <v>14</v>
       </c>
       <c r="D224" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E224" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F224" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G224" s="34"/>
       <c r="H224" s="56" t="s">
@@ -8194,9 +8252,9 @@
       <c r="L224" s="34"/>
       <c r="M224" s="34"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B225" s="34" t="s">
         <v>13</v>
@@ -8205,13 +8263,13 @@
         <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E225" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F225" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G225" s="34"/>
       <c r="H225" s="56" t="s">
@@ -8224,12 +8282,12 @@
         <v>58</v>
       </c>
       <c r="K225" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L225" s="34"/>
       <c r="M225" s="34"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" s="33" t="s">
         <v>67</v>
       </c>
@@ -8240,13 +8298,13 @@
         <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E226" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F226" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G226" s="34"/>
       <c r="H226" s="56" t="s">
@@ -8264,7 +8322,7 @@
       <c r="L226" s="34"/>
       <c r="M226" s="34"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" s="33" t="s">
         <v>69</v>
       </c>
@@ -8275,13 +8333,13 @@
         <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E227" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F227" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G227" s="34"/>
       <c r="H227" s="56" t="s">
@@ -8299,7 +8357,7 @@
       <c r="L227" s="34"/>
       <c r="M227" s="34"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" s="33" t="s">
         <v>71</v>
       </c>
@@ -8310,13 +8368,13 @@
         <v>14</v>
       </c>
       <c r="D228" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F228" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G228" s="34"/>
       <c r="H228" s="56" t="s">
@@ -8334,7 +8392,7 @@
       <c r="L228" s="34"/>
       <c r="M228" s="34"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13">
       <c r="A229" s="33" t="s">
         <v>73</v>
       </c>
@@ -8345,13 +8403,13 @@
         <v>14</v>
       </c>
       <c r="D229" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E229" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F229" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G229" s="34"/>
       <c r="H229" s="56" t="s">
@@ -8369,7 +8427,7 @@
       <c r="L229" s="34"/>
       <c r="M229" s="34"/>
     </row>
-    <row r="230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="30">
       <c r="A230" s="33" t="s">
         <v>75</v>
       </c>
@@ -8380,13 +8438,13 @@
         <v>14</v>
       </c>
       <c r="D230" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E230" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F230" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G230" s="45" t="s">
         <v>37</v>
@@ -8406,7 +8464,7 @@
       <c r="L230" s="34"/>
       <c r="M230" s="34"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13">
       <c r="A231" s="33" t="s">
         <v>77</v>
       </c>
@@ -8417,13 +8475,13 @@
         <v>14</v>
       </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E231" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F231" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G231" s="34"/>
       <c r="H231" s="56" t="s">
@@ -8441,7 +8499,7 @@
       <c r="L231" s="34"/>
       <c r="M231" s="34"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13">
       <c r="A232" s="2" t="s">
         <v>80</v>
       </c>
@@ -8452,13 +8510,13 @@
         <v>14</v>
       </c>
       <c r="D232" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E232" t="s">
         <v>79</v>
       </c>
       <c r="F232" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G232" s="34"/>
       <c r="H232" s="56" t="s">
@@ -8476,7 +8534,7 @@
       <c r="L232" s="34"/>
       <c r="M232" s="34"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13">
       <c r="A233" s="37" t="s">
         <v>81</v>
       </c>
@@ -8493,7 +8551,7 @@
       <c r="L233" s="34"/>
       <c r="M233" s="34"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13">
       <c r="A234" s="33" t="s">
         <v>56</v>
       </c>
@@ -8504,13 +8562,13 @@
         <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E234" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F234" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G234" s="34"/>
       <c r="H234" s="56" t="s">
@@ -8528,7 +8586,7 @@
       <c r="L234" s="34"/>
       <c r="M234" s="34"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13">
       <c r="A235" s="33" t="s">
         <v>59</v>
       </c>
@@ -8539,13 +8597,13 @@
         <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E235" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F235" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G235" s="34"/>
       <c r="H235" s="56" t="s">
@@ -8563,7 +8621,7 @@
       <c r="L235" s="34"/>
       <c r="M235" s="34"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13">
       <c r="A236" s="33" t="s">
         <v>65</v>
       </c>
@@ -8574,13 +8632,13 @@
         <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E236" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F236" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G236" s="34"/>
       <c r="H236" s="56" t="s">
@@ -8598,9 +8656,9 @@
       <c r="L236" s="34"/>
       <c r="M236" s="34"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13">
       <c r="A237" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B237" s="34" t="s">
         <v>13</v>
@@ -8609,13 +8667,13 @@
         <v>14</v>
       </c>
       <c r="D237" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E237" s="38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F237" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G237" s="34"/>
       <c r="H237" s="56" t="s">
@@ -8628,12 +8686,12 @@
         <v>58</v>
       </c>
       <c r="K237" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L237" s="34"/>
       <c r="M237" s="34"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13">
       <c r="A238" s="33" t="s">
         <v>67</v>
       </c>
@@ -8644,13 +8702,13 @@
         <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E238" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F238" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G238" s="34"/>
       <c r="H238" s="56" t="s">
@@ -8668,7 +8726,7 @@
       <c r="L238" s="34"/>
       <c r="M238" s="34"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13">
       <c r="A239" s="33" t="s">
         <v>69</v>
       </c>
@@ -8679,13 +8737,13 @@
         <v>14</v>
       </c>
       <c r="D239" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E239" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F239" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G239" s="34"/>
       <c r="H239" s="56" t="s">
@@ -8703,7 +8761,7 @@
       <c r="L239" s="34"/>
       <c r="M239" s="34"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13">
       <c r="A240" s="33" t="s">
         <v>71</v>
       </c>
@@ -8714,13 +8772,13 @@
         <v>14</v>
       </c>
       <c r="D240" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E240" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F240" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G240" s="34"/>
       <c r="H240" s="56" t="s">
@@ -8738,7 +8796,7 @@
       <c r="L240" s="34"/>
       <c r="M240" s="34"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" s="33" t="s">
         <v>73</v>
       </c>
@@ -8749,13 +8807,13 @@
         <v>14</v>
       </c>
       <c r="D241" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F241" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G241" s="34"/>
       <c r="H241" s="56" t="s">
@@ -8773,7 +8831,7 @@
       <c r="L241" s="34"/>
       <c r="M241" s="34"/>
     </row>
-    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="30">
       <c r="A242" s="33" t="s">
         <v>75</v>
       </c>
@@ -8784,13 +8842,13 @@
         <v>14</v>
       </c>
       <c r="D242" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E242" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F242" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G242" s="45" t="s">
         <v>37</v>
@@ -8810,7 +8868,7 @@
       <c r="L242" s="34"/>
       <c r="M242" s="34"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" s="33" t="s">
         <v>77</v>
       </c>
@@ -8821,13 +8879,13 @@
         <v>14</v>
       </c>
       <c r="D243" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E243" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F243" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G243" s="34"/>
       <c r="H243" s="56" t="s">
@@ -8845,7 +8903,7 @@
       <c r="L243" s="34"/>
       <c r="M243" s="34"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" s="2" t="s">
         <v>80</v>
       </c>
@@ -8856,13 +8914,13 @@
         <v>14</v>
       </c>
       <c r="D244" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E244" t="s">
         <v>79</v>
       </c>
       <c r="F244" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G244" s="34"/>
       <c r="H244" s="56" t="s">
@@ -8880,7 +8938,7 @@
       <c r="L244" s="34"/>
       <c r="M244" s="34"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" s="37" t="s">
         <v>82</v>
       </c>
@@ -8897,9 +8955,9 @@
       <c r="L245" s="34"/>
       <c r="M245" s="34"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B246" s="34" t="s">
         <v>13</v>
@@ -8908,13 +8966,13 @@
         <v>14</v>
       </c>
       <c r="D246" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E246" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F246" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G246" s="34"/>
       <c r="H246" s="56" t="s">
@@ -8927,14 +8985,14 @@
         <v>86</v>
       </c>
       <c r="K246" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L246" s="34"/>
       <c r="M246" s="34"/>
     </row>
-    <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="30">
       <c r="A247" s="44" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B247" s="34" t="s">
         <v>13</v>
@@ -8943,13 +9001,13 @@
         <v>14</v>
       </c>
       <c r="D247" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E247" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F247" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G247" s="34"/>
       <c r="H247" s="56" t="s">
@@ -8962,12 +9020,12 @@
         <v>86</v>
       </c>
       <c r="K247" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L247" s="34"/>
       <c r="M247" s="34"/>
     </row>
-    <row r="248" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="30">
       <c r="A248" s="33" t="s">
         <v>83</v>
       </c>
@@ -8981,24 +9039,30 @@
         <v>84</v>
       </c>
       <c r="E248" s="45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F248" s="57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G248" s="34"/>
       <c r="H248" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I248" s="34"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="34"/>
+      <c r="I248" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J248" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K248" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="L248" s="34"/>
       <c r="M248" s="34"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B249" s="34" t="s">
         <v>13</v>
@@ -9007,13 +9071,13 @@
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E249" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F249" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G249" s="34"/>
       <c r="H249" s="56" t="s">
@@ -9026,14 +9090,14 @@
         <v>86</v>
       </c>
       <c r="K249" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L249" s="34"/>
       <c r="M249" s="34"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B250" s="34" t="s">
         <v>13</v>
@@ -9042,13 +9106,13 @@
         <v>14</v>
       </c>
       <c r="D250" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E250" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F250" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G250" s="34"/>
       <c r="H250" s="56" t="s">
@@ -9061,14 +9125,14 @@
         <v>86</v>
       </c>
       <c r="K250" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L250" s="34"/>
       <c r="M250" s="34"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B251" s="34" t="s">
         <v>13</v>
@@ -9077,13 +9141,13 @@
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E251" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F251" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G251" s="34"/>
       <c r="H251" s="56" t="s">
@@ -9096,14 +9160,14 @@
         <v>86</v>
       </c>
       <c r="K251" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L251" s="34"/>
       <c r="M251" s="34"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B252" s="34" t="s">
         <v>13</v>
@@ -9112,13 +9176,13 @@
         <v>14</v>
       </c>
       <c r="D252" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E252" t="s">
         <v>88</v>
       </c>
       <c r="F252" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G252" s="34"/>
       <c r="H252" s="56" t="s">
@@ -9131,47 +9195,47 @@
         <v>86</v>
       </c>
       <c r="K252" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L252" s="34"/>
       <c r="M252" s="34"/>
     </row>
-    <row r="253" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="33" t="s">
+    <row r="253" spans="1:13" s="67" customFormat="1" ht="60">
+      <c r="A253" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B253" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C253" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D253" s="34" t="s">
+      <c r="B253" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D253" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E253" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F253" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="G253" s="34"/>
-      <c r="H253" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="I253" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J253" s="40" t="s">
+      <c r="E253" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F253" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G253" s="62"/>
+      <c r="H253" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="I253" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J253" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="K253" s="33" t="s">
+      <c r="K253" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="L253" s="34"/>
-      <c r="M253" s="34"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L253" s="62"/>
+      <c r="M253" s="62"/>
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" s="44" t="s">
         <v>89</v>
       </c>
@@ -9182,13 +9246,13 @@
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E254" t="s">
         <v>90</v>
       </c>
       <c r="F254" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G254" s="34"/>
       <c r="H254" s="56" t="s">
@@ -9206,7 +9270,7 @@
       <c r="L254" s="34"/>
       <c r="M254" s="34"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" s="44" t="s">
         <v>91</v>
       </c>
@@ -9220,10 +9284,10 @@
         <v>84</v>
       </c>
       <c r="E255" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F255" s="57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G255" s="34"/>
       <c r="H255" s="56" t="s">
@@ -9241,7 +9305,7 @@
       <c r="L255" s="34"/>
       <c r="M255" s="34"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" s="33" t="s">
         <v>93</v>
       </c>
@@ -9252,13 +9316,13 @@
         <v>14</v>
       </c>
       <c r="D256" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E256" t="s">
         <v>94</v>
       </c>
       <c r="F256" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G256" s="34"/>
       <c r="H256" s="56" t="s">
@@ -9276,9 +9340,9 @@
       <c r="L256" s="34"/>
       <c r="M256" s="34"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" s="33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B257" s="34" t="s">
         <v>13</v>
@@ -9287,13 +9351,13 @@
         <v>14</v>
       </c>
       <c r="D257" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E257" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F257" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G257" s="34"/>
       <c r="H257" s="56" t="s">
@@ -9306,12 +9370,12 @@
         <v>86</v>
       </c>
       <c r="K257" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L257" s="34"/>
       <c r="M257" s="34"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" s="46" t="s">
         <v>95</v>
       </c>
@@ -9325,10 +9389,10 @@
         <v>84</v>
       </c>
       <c r="E258" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F258" s="57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G258" s="34"/>
       <c r="H258" s="56" t="s">
@@ -9346,7 +9410,7 @@
       <c r="L258" s="34"/>
       <c r="M258" s="34"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" s="33" t="s">
         <v>97</v>
       </c>
@@ -9357,13 +9421,13 @@
         <v>14</v>
       </c>
       <c r="D259" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E259" t="s">
         <v>98</v>
       </c>
       <c r="F259" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G259" s="34"/>
       <c r="H259" s="56" t="s">
@@ -9381,7 +9445,7 @@
       <c r="L259" s="34"/>
       <c r="M259" s="34"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" s="37" t="s">
         <v>99</v>
       </c>
@@ -9398,9 +9462,9 @@
       <c r="L260" s="34"/>
       <c r="M260" s="34"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B261" s="34" t="s">
         <v>13</v>
@@ -9409,13 +9473,13 @@
         <v>14</v>
       </c>
       <c r="D261" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E261" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F261" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G261" s="34"/>
       <c r="H261" s="56" t="s">
@@ -9428,14 +9492,14 @@
         <v>86</v>
       </c>
       <c r="K261" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L261" s="34"/>
       <c r="M261" s="34"/>
     </row>
-    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="30">
       <c r="A262" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B262" s="34" t="s">
         <v>13</v>
@@ -9444,13 +9508,13 @@
         <v>14</v>
       </c>
       <c r="D262" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E262" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F262" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G262" s="34"/>
       <c r="H262" s="56" t="s">
@@ -9463,12 +9527,12 @@
         <v>86</v>
       </c>
       <c r="K262" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L262" s="34"/>
       <c r="M262" s="34"/>
     </row>
-    <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="30">
       <c r="A263" s="33" t="s">
         <v>83</v>
       </c>
@@ -9482,24 +9546,30 @@
         <v>84</v>
       </c>
       <c r="E263" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F263" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G263" s="34"/>
       <c r="H263" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I263" s="34"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="34"/>
+      <c r="I263" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J263" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K263" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="L263" s="34"/>
       <c r="M263" s="34"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B264" s="34" t="s">
         <v>13</v>
@@ -9508,13 +9578,13 @@
         <v>14</v>
       </c>
       <c r="D264" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E264" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F264" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G264" s="34"/>
       <c r="H264" s="56" t="s">
@@ -9527,14 +9597,14 @@
         <v>86</v>
       </c>
       <c r="K264" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L264" s="34"/>
       <c r="M264" s="34"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B265" s="34" t="s">
         <v>13</v>
@@ -9543,13 +9613,13 @@
         <v>14</v>
       </c>
       <c r="D265" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E265" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F265" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G265" s="34"/>
       <c r="H265" s="56" t="s">
@@ -9562,14 +9632,14 @@
         <v>86</v>
       </c>
       <c r="K265" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L265" s="34"/>
       <c r="M265" s="34"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B266" s="34" t="s">
         <v>13</v>
@@ -9578,13 +9648,13 @@
         <v>14</v>
       </c>
       <c r="D266" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E266" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F266" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G266" s="34"/>
       <c r="H266" s="56" t="s">
@@ -9597,14 +9667,14 @@
         <v>86</v>
       </c>
       <c r="K266" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L266" s="34"/>
       <c r="M266" s="34"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B267" s="34" t="s">
         <v>13</v>
@@ -9613,13 +9683,13 @@
         <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E267" t="s">
         <v>88</v>
       </c>
       <c r="F267" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G267" s="34"/>
       <c r="H267" s="56" t="s">
@@ -9632,29 +9702,29 @@
         <v>86</v>
       </c>
       <c r="K267" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L267" s="34"/>
       <c r="M267" s="34"/>
     </row>
-    <row r="268" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A268" s="33" t="s">
+    <row r="268" spans="1:13" ht="60">
+      <c r="A268" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B268" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C268" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D268" s="34" t="s">
+      <c r="B268" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E268" s="45" t="s">
-        <v>209</v>
+      <c r="E268" s="63" t="s">
+        <v>284</v>
       </c>
       <c r="F268" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G268" s="34"/>
       <c r="H268" s="56" t="s">
@@ -9672,7 +9742,7 @@
       <c r="L268" s="34"/>
       <c r="M268" s="34"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" s="44" t="s">
         <v>89</v>
       </c>
@@ -9683,13 +9753,13 @@
         <v>14</v>
       </c>
       <c r="D269" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E269" t="s">
         <v>90</v>
       </c>
       <c r="F269" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G269" s="34"/>
       <c r="H269" s="56" t="s">
@@ -9707,7 +9777,7 @@
       <c r="L269" s="34"/>
       <c r="M269" s="34"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" s="44" t="s">
         <v>91</v>
       </c>
@@ -9721,10 +9791,10 @@
         <v>84</v>
       </c>
       <c r="E270" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F270" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G270" s="34"/>
       <c r="H270" s="56" t="s">
@@ -9742,7 +9812,7 @@
       <c r="L270" s="34"/>
       <c r="M270" s="34"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" s="33" t="s">
         <v>93</v>
       </c>
@@ -9753,13 +9823,13 @@
         <v>14</v>
       </c>
       <c r="D271" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E271" t="s">
         <v>94</v>
       </c>
       <c r="F271" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G271" s="34"/>
       <c r="H271" s="56" t="s">
@@ -9777,9 +9847,9 @@
       <c r="L271" s="34"/>
       <c r="M271" s="34"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" s="33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B272" s="34" t="s">
         <v>13</v>
@@ -9788,13 +9858,13 @@
         <v>14</v>
       </c>
       <c r="D272" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E272" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F272" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G272" s="34"/>
       <c r="H272" s="56" t="s">
@@ -9807,12 +9877,12 @@
         <v>86</v>
       </c>
       <c r="K272" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L272" s="34"/>
       <c r="M272" s="34"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13">
       <c r="A273" s="46" t="s">
         <v>95</v>
       </c>
@@ -9826,10 +9896,10 @@
         <v>84</v>
       </c>
       <c r="E273" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F273" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G273" s="34"/>
       <c r="H273" s="56" t="s">
@@ -9847,7 +9917,7 @@
       <c r="L273" s="34"/>
       <c r="M273" s="34"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13">
       <c r="A274" s="33" t="s">
         <v>97</v>
       </c>
@@ -9858,13 +9928,13 @@
         <v>14</v>
       </c>
       <c r="D274" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E274" t="s">
         <v>98</v>
       </c>
       <c r="F274" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G274" s="34"/>
       <c r="H274" s="56" t="s">
@@ -9882,7 +9952,7 @@
       <c r="L274" s="34"/>
       <c r="M274" s="34"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13">
       <c r="A275" s="47" t="s">
         <v>108</v>
       </c>
@@ -9899,7 +9969,7 @@
       <c r="L275" s="34"/>
       <c r="M275" s="34"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13">
       <c r="A276" s="33" t="s">
         <v>109</v>
       </c>
@@ -9910,13 +9980,13 @@
         <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E276" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F276" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G276" s="34"/>
       <c r="H276" s="56" t="s">
@@ -9934,7 +10004,7 @@
       <c r="L276" s="34"/>
       <c r="M276" s="34"/>
     </row>
-    <row r="277" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="30">
       <c r="A277" s="33" t="s">
         <v>111</v>
       </c>
@@ -9945,13 +10015,13 @@
         <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E277" t="s">
         <v>112</v>
       </c>
       <c r="F277" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G277" s="45" t="s">
         <v>37</v>
@@ -9971,7 +10041,7 @@
       <c r="L277" s="34"/>
       <c r="M277" s="34"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13">
       <c r="A278" s="33" t="s">
         <v>113</v>
       </c>
@@ -9982,13 +10052,13 @@
         <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E278" t="s">
         <v>114</v>
       </c>
       <c r="F278" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G278" s="34"/>
       <c r="H278" s="56" t="s">
@@ -10006,7 +10076,7 @@
       <c r="L278" s="34"/>
       <c r="M278" s="34"/>
     </row>
-    <row r="279" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="30">
       <c r="A279" s="33" t="s">
         <v>115</v>
       </c>
@@ -10017,13 +10087,13 @@
         <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E279" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F279" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G279" s="34"/>
       <c r="H279" s="56" t="s">
@@ -10041,7 +10111,7 @@
       <c r="L279" s="34"/>
       <c r="M279" s="34"/>
     </row>
-    <row r="280" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="30">
       <c r="A280" s="33" t="s">
         <v>116</v>
       </c>
@@ -10052,13 +10122,13 @@
         <v>14</v>
       </c>
       <c r="D280" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E280" t="s">
         <v>117</v>
       </c>
       <c r="F280" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G280" s="45" t="s">
         <v>37</v>
@@ -10078,7 +10148,7 @@
       <c r="L280" s="34"/>
       <c r="M280" s="34"/>
     </row>
-    <row r="281" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="30">
       <c r="A281" s="33" t="s">
         <v>118</v>
       </c>
@@ -10089,13 +10159,13 @@
         <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E281" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F281" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G281" s="45" t="s">
         <v>37</v>
@@ -10115,9 +10185,9 @@
       <c r="L281" s="34"/>
       <c r="M281" s="34"/>
     </row>
-    <row r="282" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13">
       <c r="A282" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B282" s="34" t="s">
         <v>13</v>
@@ -10126,13 +10196,13 @@
         <v>14</v>
       </c>
       <c r="D282" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E282" t="s">
         <v>122</v>
       </c>
       <c r="F282" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G282" s="45"/>
       <c r="H282" s="56" t="s">
@@ -10145,29 +10215,29 @@
         <v>110</v>
       </c>
       <c r="K282" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L282" s="34"/>
       <c r="M282" s="34"/>
     </row>
-    <row r="283" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13">
       <c r="A283" t="s">
+        <v>211</v>
+      </c>
+      <c r="B283" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" t="s">
+        <v>218</v>
+      </c>
+      <c r="E283" t="s">
+        <v>212</v>
+      </c>
+      <c r="F283" t="s">
         <v>214</v>
-      </c>
-      <c r="B283" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C283" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D283" t="s">
-        <v>221</v>
-      </c>
-      <c r="E283" t="s">
-        <v>215</v>
-      </c>
-      <c r="F283" t="s">
-        <v>217</v>
       </c>
       <c r="G283" s="45"/>
       <c r="H283" s="56" t="s">
@@ -10180,12 +10250,12 @@
         <v>110</v>
       </c>
       <c r="K283" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L283" s="34"/>
       <c r="M283" s="34"/>
     </row>
-    <row r="284" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13">
       <c r="A284" s="33" t="s">
         <v>121</v>
       </c>
@@ -10199,10 +10269,10 @@
         <v>84</v>
       </c>
       <c r="E284" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F284" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G284" s="36"/>
       <c r="H284" s="56" t="s">
@@ -10220,7 +10290,7 @@
       <c r="L284" s="34"/>
       <c r="M284" s="34"/>
     </row>
-    <row r="285" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="30">
       <c r="A285" s="33" t="s">
         <v>123</v>
       </c>
@@ -10231,13 +10301,13 @@
         <v>14</v>
       </c>
       <c r="D285" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E285" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F285" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G285" s="45" t="s">
         <v>37</v>
@@ -10257,7 +10327,7 @@
       <c r="L285" s="34"/>
       <c r="M285" s="34"/>
     </row>
-    <row r="286" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13">
       <c r="A286" s="33" t="s">
         <v>128</v>
       </c>
@@ -10271,10 +10341,10 @@
         <v>84</v>
       </c>
       <c r="E286" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F286" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G286" s="34"/>
       <c r="H286" s="56" t="s">
@@ -10292,7 +10362,7 @@
       <c r="L286" s="34"/>
       <c r="M286" s="34"/>
     </row>
-    <row r="287" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13">
       <c r="A287" s="33" t="s">
         <v>125</v>
       </c>
@@ -10306,10 +10376,10 @@
         <v>84</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F287" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G287" s="34"/>
       <c r="H287" s="56" t="s">
@@ -10327,7 +10397,7 @@
       <c r="L287" s="34"/>
       <c r="M287" s="34"/>
     </row>
-    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="30">
       <c r="A288" s="33" t="s">
         <v>126</v>
       </c>
@@ -10338,13 +10408,13 @@
         <v>14</v>
       </c>
       <c r="D288" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E288" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F288" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G288" s="45" t="s">
         <v>37</v>
@@ -10364,7 +10434,7 @@
       <c r="L288" s="34"/>
       <c r="M288" s="34"/>
     </row>
-    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="30">
       <c r="A289" s="33" t="s">
         <v>129</v>
       </c>
@@ -10375,13 +10445,13 @@
         <v>14</v>
       </c>
       <c r="D289" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E289" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F289" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G289" s="45" t="s">
         <v>37</v>
@@ -10401,7 +10471,7 @@
       <c r="L289" s="34"/>
       <c r="M289" s="34"/>
     </row>
-    <row r="290" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="30">
       <c r="A290" s="33" t="s">
         <v>131</v>
       </c>
@@ -10412,13 +10482,13 @@
         <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E290" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F290" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G290" s="45" t="s">
         <v>37</v>
@@ -10438,7 +10508,7 @@
       <c r="L290" s="34"/>
       <c r="M290" s="34"/>
     </row>
-    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="30">
       <c r="A291" s="33" t="s">
         <v>132</v>
       </c>
@@ -10449,13 +10519,13 @@
         <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E291" t="s">
         <v>133</v>
       </c>
       <c r="F291" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G291" s="45" t="s">
         <v>37</v>
@@ -10475,7 +10545,7 @@
       <c r="L291" s="34"/>
       <c r="M291" s="34"/>
     </row>
-    <row r="292" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="30">
       <c r="A292" s="33" t="s">
         <v>134</v>
       </c>
@@ -10486,13 +10556,13 @@
         <v>14</v>
       </c>
       <c r="D292" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E292" t="s">
         <v>135</v>
       </c>
       <c r="F292" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G292" s="45" t="s">
         <v>37</v>
@@ -10512,7 +10582,7 @@
       <c r="L292" s="34"/>
       <c r="M292" s="34"/>
     </row>
-    <row r="293" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="30">
       <c r="A293" s="33" t="s">
         <v>136</v>
       </c>
@@ -10523,13 +10593,13 @@
         <v>14</v>
       </c>
       <c r="D293" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E293" t="s">
         <v>137</v>
       </c>
       <c r="F293" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G293" s="45" t="s">
         <v>37</v>
@@ -10549,7 +10619,7 @@
       <c r="L293" s="34"/>
       <c r="M293" s="34"/>
     </row>
-    <row r="294" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="30">
       <c r="A294" s="33" t="s">
         <v>138</v>
       </c>
@@ -10560,13 +10630,13 @@
         <v>14</v>
       </c>
       <c r="D294" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E294" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F294" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G294" s="45" t="s">
         <v>37</v>
@@ -10586,7 +10656,7 @@
       <c r="L294" s="34"/>
       <c r="M294" s="34"/>
     </row>
-    <row r="295" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="30">
       <c r="A295" s="33" t="s">
         <v>143</v>
       </c>
@@ -10597,13 +10667,13 @@
         <v>14</v>
       </c>
       <c r="D295" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E295" t="s">
         <v>144</v>
       </c>
       <c r="F295" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G295" s="45" t="s">
         <v>37</v>
@@ -10623,7 +10693,7 @@
       <c r="L295" s="34"/>
       <c r="M295" s="34"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13">
       <c r="A296" s="47" t="s">
         <v>145</v>
       </c>
@@ -10640,7 +10710,7 @@
       <c r="L296" s="34"/>
       <c r="M296" s="34"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13">
       <c r="A297" s="33" t="s">
         <v>109</v>
       </c>
@@ -10651,13 +10721,13 @@
         <v>14</v>
       </c>
       <c r="D297" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E297" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F297" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G297" s="34"/>
       <c r="H297" s="56" t="s">
@@ -10675,7 +10745,7 @@
       <c r="L297" s="34"/>
       <c r="M297" s="34"/>
     </row>
-    <row r="298" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="30">
       <c r="A298" s="33" t="s">
         <v>111</v>
       </c>
@@ -10686,13 +10756,13 @@
         <v>14</v>
       </c>
       <c r="D298" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E298" t="s">
         <v>112</v>
       </c>
       <c r="F298" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G298" s="45" t="s">
         <v>37</v>
@@ -10712,7 +10782,7 @@
       <c r="L298" s="34"/>
       <c r="M298" s="34"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13">
       <c r="A299" s="33" t="s">
         <v>113</v>
       </c>
@@ -10723,13 +10793,13 @@
         <v>14</v>
       </c>
       <c r="D299" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E299" t="s">
         <v>114</v>
       </c>
       <c r="F299" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G299" s="34"/>
       <c r="H299" s="56" t="s">
@@ -10747,7 +10817,7 @@
       <c r="L299" s="34"/>
       <c r="M299" s="34"/>
     </row>
-    <row r="300" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="30">
       <c r="A300" s="33" t="s">
         <v>115</v>
       </c>
@@ -10758,13 +10828,13 @@
         <v>14</v>
       </c>
       <c r="D300" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E300" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F300" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G300" s="34"/>
       <c r="H300" s="56" t="s">
@@ -10782,7 +10852,7 @@
       <c r="L300" s="34"/>
       <c r="M300" s="34"/>
     </row>
-    <row r="301" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="30">
       <c r="A301" s="33" t="s">
         <v>116</v>
       </c>
@@ -10793,13 +10863,13 @@
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E301" t="s">
         <v>117</v>
       </c>
       <c r="F301" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G301" s="45" t="s">
         <v>37</v>
@@ -10819,7 +10889,7 @@
       <c r="L301" s="34"/>
       <c r="M301" s="34"/>
     </row>
-    <row r="302" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" ht="30">
       <c r="A302" s="33" t="s">
         <v>118</v>
       </c>
@@ -10830,13 +10900,13 @@
         <v>14</v>
       </c>
       <c r="D302" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E302" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F302" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G302" s="45" t="s">
         <v>37</v>
@@ -10856,9 +10926,9 @@
       <c r="L302" s="34"/>
       <c r="M302" s="34"/>
     </row>
-    <row r="303" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B303" s="34" t="s">
         <v>13</v>
@@ -10867,13 +10937,13 @@
         <v>14</v>
       </c>
       <c r="D303" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E303" t="s">
         <v>122</v>
       </c>
       <c r="F303" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G303" s="45"/>
       <c r="H303" s="56" t="s">
@@ -10886,14 +10956,14 @@
         <v>110</v>
       </c>
       <c r="K303" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L303" s="34"/>
       <c r="M303" s="34"/>
     </row>
-    <row r="304" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B304" s="34" t="s">
         <v>13</v>
@@ -10902,13 +10972,13 @@
         <v>14</v>
       </c>
       <c r="D304" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E304" t="s">
+        <v>212</v>
+      </c>
+      <c r="F304" t="s">
         <v>215</v>
-      </c>
-      <c r="F304" t="s">
-        <v>218</v>
       </c>
       <c r="G304" s="45"/>
       <c r="H304" s="56" t="s">
@@ -10921,12 +10991,12 @@
         <v>110</v>
       </c>
       <c r="K304" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L304" s="34"/>
       <c r="M304" s="34"/>
     </row>
-    <row r="305" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13">
       <c r="A305" s="33" t="s">
         <v>121</v>
       </c>
@@ -10940,10 +11010,10 @@
         <v>84</v>
       </c>
       <c r="E305" s="36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F305" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G305" s="36"/>
       <c r="H305" s="56" t="s">
@@ -10961,7 +11031,7 @@
       <c r="L305" s="34"/>
       <c r="M305" s="34"/>
     </row>
-    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" ht="30">
       <c r="A306" s="33" t="s">
         <v>123</v>
       </c>
@@ -10972,13 +11042,13 @@
         <v>14</v>
       </c>
       <c r="D306" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E306" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F306" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G306" s="45" t="s">
         <v>37</v>
@@ -10998,7 +11068,7 @@
       <c r="L306" s="34"/>
       <c r="M306" s="34"/>
     </row>
-    <row r="307" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13">
       <c r="A307" s="33" t="s">
         <v>128</v>
       </c>
@@ -11012,10 +11082,10 @@
         <v>84</v>
       </c>
       <c r="E307" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F307" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G307" s="34"/>
       <c r="H307" s="56" t="s">
@@ -11033,7 +11103,7 @@
       <c r="L307" s="34"/>
       <c r="M307" s="34"/>
     </row>
-    <row r="308" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13">
       <c r="A308" s="33" t="s">
         <v>125</v>
       </c>
@@ -11047,10 +11117,10 @@
         <v>84</v>
       </c>
       <c r="E308" s="49" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F308" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G308" s="34"/>
       <c r="H308" s="56" t="s">
@@ -11068,7 +11138,7 @@
       <c r="L308" s="34"/>
       <c r="M308" s="34"/>
     </row>
-    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" ht="30">
       <c r="A310" s="33" t="s">
         <v>126</v>
       </c>
@@ -11079,13 +11149,13 @@
         <v>14</v>
       </c>
       <c r="D310" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E310" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F310" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G310" s="45" t="s">
         <v>37</v>
@@ -11105,7 +11175,7 @@
       <c r="L310" s="34"/>
       <c r="M310" s="34"/>
     </row>
-    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" ht="30">
       <c r="A311" s="33" t="s">
         <v>129</v>
       </c>
@@ -11116,13 +11186,13 @@
         <v>14</v>
       </c>
       <c r="D311" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E311" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F311" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G311" s="45" t="s">
         <v>37</v>
@@ -11142,7 +11212,7 @@
       <c r="L311" s="34"/>
       <c r="M311" s="34"/>
     </row>
-    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" ht="30">
       <c r="A312" s="33" t="s">
         <v>131</v>
       </c>
@@ -11153,13 +11223,13 @@
         <v>14</v>
       </c>
       <c r="D312" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E312" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F312" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G312" s="45" t="s">
         <v>37</v>
@@ -11179,7 +11249,7 @@
       <c r="L312" s="34"/>
       <c r="M312" s="34"/>
     </row>
-    <row r="313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" ht="30">
       <c r="A313" s="33" t="s">
         <v>132</v>
       </c>
@@ -11190,13 +11260,13 @@
         <v>14</v>
       </c>
       <c r="D313" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E313" t="s">
         <v>133</v>
       </c>
       <c r="F313" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G313" s="45" t="s">
         <v>37</v>
@@ -11216,7 +11286,7 @@
       <c r="L313" s="34"/>
       <c r="M313" s="34"/>
     </row>
-    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" ht="30">
       <c r="A314" s="33" t="s">
         <v>134</v>
       </c>
@@ -11227,13 +11297,13 @@
         <v>14</v>
       </c>
       <c r="D314" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E314" t="s">
         <v>135</v>
       </c>
       <c r="F314" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G314" s="45" t="s">
         <v>37</v>
@@ -11253,7 +11323,7 @@
       <c r="L314" s="34"/>
       <c r="M314" s="34"/>
     </row>
-    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" ht="30">
       <c r="A315" s="33" t="s">
         <v>136</v>
       </c>
@@ -11264,13 +11334,13 @@
         <v>14</v>
       </c>
       <c r="D315" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E315" t="s">
         <v>137</v>
       </c>
       <c r="F315" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G315" s="45" t="s">
         <v>37</v>
@@ -11290,7 +11360,7 @@
       <c r="L315" s="34"/>
       <c r="M315" s="34"/>
     </row>
-    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" ht="30">
       <c r="A316" s="33" t="s">
         <v>138</v>
       </c>
@@ -11301,13 +11371,13 @@
         <v>14</v>
       </c>
       <c r="D316" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E316" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F316" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G316" s="45" t="s">
         <v>37</v>
@@ -11327,7 +11397,7 @@
       <c r="L316" s="34"/>
       <c r="M316" s="34"/>
     </row>
-    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" ht="30">
       <c r="A317" s="33" t="s">
         <v>143</v>
       </c>
@@ -11338,13 +11408,13 @@
         <v>14</v>
       </c>
       <c r="D317" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E317" t="s">
         <v>144</v>
       </c>
       <c r="F317" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G317" s="45" t="s">
         <v>37</v>
@@ -11364,7 +11434,7 @@
       <c r="L317" s="34"/>
       <c r="M317" s="34"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13">
       <c r="A318" s="50" t="s">
         <v>100</v>
       </c>
@@ -11381,7 +11451,7 @@
       <c r="L318" s="34"/>
       <c r="M318" s="34"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13">
       <c r="A319" s="44" t="s">
         <v>101</v>
       </c>
@@ -11392,13 +11462,13 @@
         <v>14</v>
       </c>
       <c r="D319" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E319" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="F319" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G319" s="34"/>
       <c r="H319" s="56" t="s">
@@ -11416,7 +11486,7 @@
       <c r="L319" s="34"/>
       <c r="M319" s="34"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13">
       <c r="A320" s="50" t="s">
         <v>107</v>
       </c>
@@ -11433,7 +11503,7 @@
       <c r="L320" s="34"/>
       <c r="M320" s="34"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13">
       <c r="A321" s="44" t="s">
         <v>101</v>
       </c>
@@ -11444,13 +11514,13 @@
         <v>14</v>
       </c>
       <c r="D321" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E321" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="F321" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G321" s="34"/>
       <c r="H321" s="56" t="s">
@@ -11468,7 +11538,7 @@
       <c r="L321" s="34"/>
       <c r="M321" s="34"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13">
       <c r="A322" s="51" t="s">
         <v>146</v>
       </c>
@@ -11485,7 +11555,7 @@
       <c r="L322" s="34"/>
       <c r="M322" s="34"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13">
       <c r="A323" s="39" t="s">
         <v>147</v>
       </c>
@@ -11496,13 +11566,13 @@
         <v>14</v>
       </c>
       <c r="D323" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E323" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F323" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G323" s="34"/>
       <c r="H323" s="56" t="s">
@@ -11520,7 +11590,7 @@
       <c r="L323" s="34"/>
       <c r="M323" s="34"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13">
       <c r="A324" s="39" t="s">
         <v>151</v>
       </c>
@@ -11531,13 +11601,13 @@
         <v>14</v>
       </c>
       <c r="D324" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E324" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F324" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G324" s="45"/>
       <c r="H324" s="56" t="s">
@@ -11555,7 +11625,7 @@
       <c r="L324" s="34"/>
       <c r="M324" s="34"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13">
       <c r="A325" s="39" t="s">
         <v>152</v>
       </c>
@@ -11566,13 +11636,13 @@
         <v>14</v>
       </c>
       <c r="D325" t="s">
+        <v>264</v>
+      </c>
+      <c r="E325" t="s">
         <v>267</v>
       </c>
-      <c r="E325" t="s">
-        <v>270</v>
-      </c>
       <c r="F325" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G325" s="45"/>
       <c r="H325" s="56" t="s">
@@ -11590,7 +11660,7 @@
       <c r="L325" s="34"/>
       <c r="M325" s="34"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13">
       <c r="A326" s="39" t="s">
         <v>153</v>
       </c>
@@ -11601,13 +11671,13 @@
         <v>14</v>
       </c>
       <c r="D326" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E326" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F326" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G326" s="45"/>
       <c r="H326" s="56" t="s">
@@ -11625,7 +11695,7 @@
       <c r="L326" s="34"/>
       <c r="M326" s="34"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13">
       <c r="A327" s="39" t="s">
         <v>154</v>
       </c>
@@ -11636,13 +11706,13 @@
         <v>14</v>
       </c>
       <c r="D327" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E327" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F327" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G327" s="45"/>
       <c r="H327" s="56" t="s">
@@ -11660,7 +11730,7 @@
       <c r="L327" s="34"/>
       <c r="M327" s="34"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13">
       <c r="A328" s="39" t="s">
         <v>155</v>
       </c>
@@ -11671,15 +11741,15 @@
         <v>14</v>
       </c>
       <c r="D328" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E328" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F328" t="s">
-        <v>219</v>
-      </c>
-      <c r="G328" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="G328" s="69" t="s">
         <v>156</v>
       </c>
       <c r="H328" s="56" t="s">
@@ -11697,7 +11767,7 @@
       <c r="L328" s="34"/>
       <c r="M328" s="34"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13">
       <c r="A329" s="39" t="s">
         <v>158</v>
       </c>
@@ -11708,15 +11778,15 @@
         <v>14</v>
       </c>
       <c r="D329" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E329" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F329" t="s">
-        <v>219</v>
-      </c>
-      <c r="G329" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G329" s="69"/>
       <c r="H329" s="56" t="s">
         <v>188</v>
       </c>
@@ -11726,7 +11796,7 @@
       <c r="L329" s="34"/>
       <c r="M329" s="34"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13">
       <c r="A330" s="52" t="s">
         <v>159</v>
       </c>
@@ -11739,9 +11809,9 @@
       <c r="D330" s="34"/>
       <c r="E330" s="34"/>
       <c r="F330" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G330" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G330" s="69"/>
       <c r="H330" s="56" t="s">
         <v>188</v>
       </c>
@@ -11751,7 +11821,7 @@
       <c r="L330" s="34"/>
       <c r="M330" s="34"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13">
       <c r="A331" s="52" t="s">
         <v>160</v>
       </c>
@@ -11764,9 +11834,9 @@
       <c r="D331" s="34"/>
       <c r="E331" s="34"/>
       <c r="F331" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G331" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G331" s="69"/>
       <c r="H331" s="56" t="s">
         <v>188</v>
       </c>
@@ -11776,7 +11846,7 @@
       <c r="L331" s="34"/>
       <c r="M331" s="34"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13">
       <c r="A332" s="52" t="s">
         <v>161</v>
       </c>
@@ -11789,9 +11859,9 @@
       <c r="D332" s="34"/>
       <c r="E332" s="34"/>
       <c r="F332" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G332" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G332" s="69"/>
       <c r="H332" s="56" t="s">
         <v>188</v>
       </c>
@@ -11801,7 +11871,7 @@
       <c r="L332" s="34"/>
       <c r="M332" s="34"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13">
       <c r="A333" s="52" t="s">
         <v>162</v>
       </c>
@@ -11814,9 +11884,9 @@
       <c r="D333" s="34"/>
       <c r="E333" s="34"/>
       <c r="F333" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G333" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G333" s="69"/>
       <c r="H333" s="56" t="s">
         <v>188</v>
       </c>
@@ -11826,7 +11896,7 @@
       <c r="L333" s="34"/>
       <c r="M333" s="34"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13">
       <c r="A334" s="53" t="s">
         <v>163</v>
       </c>
@@ -11843,7 +11913,7 @@
       <c r="L334" s="34"/>
       <c r="M334" s="34"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13">
       <c r="A335" s="39" t="s">
         <v>164</v>
       </c>
@@ -11854,13 +11924,13 @@
         <v>14</v>
       </c>
       <c r="D335" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E335" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F335" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G335" s="34"/>
       <c r="H335" s="56" t="s">
@@ -11878,7 +11948,7 @@
       <c r="L335" s="34"/>
       <c r="M335" s="34"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13">
       <c r="A336" s="37" t="s">
         <v>166</v>
       </c>
@@ -11895,7 +11965,7 @@
       <c r="L336" s="34"/>
       <c r="M336" s="34"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13">
       <c r="A337" s="39" t="s">
         <v>147</v>
       </c>
@@ -11908,7 +11978,7 @@
       <c r="D337" s="34"/>
       <c r="E337" s="34"/>
       <c r="F337" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G337" s="34"/>
       <c r="H337" s="56" t="s">
@@ -11926,7 +11996,7 @@
       <c r="L337" s="34"/>
       <c r="M337" s="34"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13">
       <c r="A338" s="39" t="s">
         <v>151</v>
       </c>
@@ -11939,7 +12009,7 @@
       <c r="D338" s="34"/>
       <c r="E338" s="34"/>
       <c r="F338" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G338" s="45"/>
       <c r="H338" s="56" t="s">
@@ -11957,7 +12027,7 @@
       <c r="L338" s="34"/>
       <c r="M338" s="34"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13">
       <c r="A339" s="39" t="s">
         <v>152</v>
       </c>
@@ -11970,7 +12040,7 @@
       <c r="D339" s="34"/>
       <c r="E339" s="34"/>
       <c r="F339" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G339" s="45"/>
       <c r="H339" s="56" t="s">
@@ -11988,7 +12058,7 @@
       <c r="L339" s="34"/>
       <c r="M339" s="34"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13">
       <c r="A340" s="39" t="s">
         <v>153</v>
       </c>
@@ -12001,7 +12071,7 @@
       <c r="D340" s="34"/>
       <c r="E340" s="34"/>
       <c r="F340" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G340" s="45"/>
       <c r="H340" s="56" t="s">
@@ -12019,7 +12089,7 @@
       <c r="L340" s="34"/>
       <c r="M340" s="34"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13">
       <c r="A341" s="39" t="s">
         <v>154</v>
       </c>
@@ -12032,7 +12102,7 @@
       <c r="D341" s="34"/>
       <c r="E341" s="34"/>
       <c r="F341" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G341" s="45"/>
       <c r="H341" s="56" t="s">
@@ -12050,7 +12120,7 @@
       <c r="L341" s="34"/>
       <c r="M341" s="34"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13">
       <c r="A342" s="39" t="s">
         <v>155</v>
       </c>
@@ -12063,9 +12133,9 @@
       <c r="D342" s="34"/>
       <c r="E342" s="34"/>
       <c r="F342" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G342" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="G342" s="69" t="s">
         <v>156</v>
       </c>
       <c r="H342" s="56" t="s">
@@ -12083,7 +12153,7 @@
       <c r="L342" s="34"/>
       <c r="M342" s="34"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13">
       <c r="A343" s="39" t="s">
         <v>158</v>
       </c>
@@ -12096,9 +12166,9 @@
       <c r="D343" s="34"/>
       <c r="E343" s="34"/>
       <c r="F343" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G343" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G343" s="69"/>
       <c r="H343" s="56" t="s">
         <v>188</v>
       </c>
@@ -12108,7 +12178,7 @@
       <c r="L343" s="34"/>
       <c r="M343" s="34"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13">
       <c r="A344" s="52" t="s">
         <v>159</v>
       </c>
@@ -12121,9 +12191,9 @@
       <c r="D344" s="34"/>
       <c r="E344" s="34"/>
       <c r="F344" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G344" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G344" s="69"/>
       <c r="H344" s="56" t="s">
         <v>188</v>
       </c>
@@ -12133,7 +12203,7 @@
       <c r="L344" s="34"/>
       <c r="M344" s="34"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13">
       <c r="A345" s="52" t="s">
         <v>160</v>
       </c>
@@ -12146,9 +12216,9 @@
       <c r="D345" s="34"/>
       <c r="E345" s="34"/>
       <c r="F345" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G345" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G345" s="69"/>
       <c r="H345" s="56" t="s">
         <v>188</v>
       </c>
@@ -12158,7 +12228,7 @@
       <c r="L345" s="34"/>
       <c r="M345" s="34"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13">
       <c r="A346" s="52" t="s">
         <v>161</v>
       </c>
@@ -12171,9 +12241,9 @@
       <c r="D346" s="34"/>
       <c r="E346" s="34"/>
       <c r="F346" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G346" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G346" s="69"/>
       <c r="H346" s="56" t="s">
         <v>188</v>
       </c>
@@ -12183,7 +12253,7 @@
       <c r="L346" s="34"/>
       <c r="M346" s="34"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13">
       <c r="A347" s="52" t="s">
         <v>162</v>
       </c>
@@ -12196,9 +12266,9 @@
       <c r="D347" s="34"/>
       <c r="E347" s="34"/>
       <c r="F347" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G347" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="G347" s="69"/>
       <c r="H347" s="56" t="s">
         <v>188</v>
       </c>
@@ -12208,7 +12278,7 @@
       <c r="L347" s="34"/>
       <c r="M347" s="34"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13">
       <c r="A348" s="51" t="s">
         <v>168</v>
       </c>
@@ -12225,7 +12295,7 @@
       <c r="L348" s="34"/>
       <c r="M348" s="34"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13">
       <c r="A349" s="39" t="s">
         <v>12</v>
       </c>
@@ -12236,13 +12306,13 @@
         <v>14</v>
       </c>
       <c r="D349" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E349" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F349" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G349" s="34"/>
       <c r="H349" s="56" t="s">
@@ -12258,7 +12328,7 @@
       <c r="L349" s="34"/>
       <c r="M349" s="34"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13">
       <c r="A350" s="39" t="s">
         <v>17</v>
       </c>
@@ -12269,13 +12339,13 @@
         <v>14</v>
       </c>
       <c r="D350" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E350" t="s">
         <v>18</v>
       </c>
       <c r="F350" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G350" s="34"/>
       <c r="H350" s="56" t="s">
@@ -12291,7 +12361,7 @@
       <c r="L350" s="34"/>
       <c r="M350" s="34"/>
     </row>
-    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" ht="30">
       <c r="A351" s="54" t="s">
         <v>172</v>
       </c>
@@ -12302,13 +12372,13 @@
         <v>14</v>
       </c>
       <c r="D351" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E351" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F351" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G351" s="34"/>
       <c r="H351" s="56" t="s">
@@ -12324,7 +12394,7 @@
       <c r="L351" s="34"/>
       <c r="M351" s="34"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13">
       <c r="A352" s="54" t="s">
         <v>174</v>
       </c>
@@ -12335,13 +12405,13 @@
         <v>14</v>
       </c>
       <c r="D352" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E352" t="s">
         <v>117</v>
       </c>
       <c r="F352" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G352" s="34"/>
       <c r="H352" s="56" t="s">
@@ -12357,7 +12427,7 @@
       <c r="L352" s="34"/>
       <c r="M352" s="34"/>
     </row>
-    <row r="353" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" ht="45">
       <c r="A353" s="54" t="s">
         <v>175</v>
       </c>
@@ -12368,13 +12438,13 @@
         <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E353" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F353" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G353" s="45" t="s">
         <v>177</v>
@@ -12392,7 +12462,7 @@
       <c r="L353" s="34"/>
       <c r="M353" s="34"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13">
       <c r="A354" s="54" t="s">
         <v>178</v>
       </c>
@@ -12403,13 +12473,13 @@
         <v>14</v>
       </c>
       <c r="D354" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E354" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F354" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G354" s="34"/>
       <c r="H354" s="56" t="s">
@@ -12425,7 +12495,7 @@
       <c r="L354" s="34"/>
       <c r="M354" s="34"/>
     </row>
-    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" ht="30">
       <c r="A355" s="54" t="s">
         <v>180</v>
       </c>
@@ -12436,13 +12506,13 @@
         <v>14</v>
       </c>
       <c r="D355" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E355" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F355" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G355" s="34"/>
       <c r="H355" s="56" t="s">
@@ -12458,7 +12528,7 @@
       <c r="L355" s="34"/>
       <c r="M355" s="34"/>
     </row>
-    <row r="356" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" ht="30">
       <c r="A356" s="54" t="s">
         <v>184</v>
       </c>
@@ -12469,13 +12539,13 @@
         <v>14</v>
       </c>
       <c r="D356" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E356" t="s">
         <v>185</v>
       </c>
       <c r="F356" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G356" s="34"/>
       <c r="H356" s="56" t="s">
@@ -12491,7 +12561,7 @@
       <c r="L356" s="34"/>
       <c r="M356" s="34"/>
     </row>
-    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="30">
       <c r="A357" s="2" t="s">
         <v>170</v>
       </c>
@@ -12502,13 +12572,13 @@
         <v>14</v>
       </c>
       <c r="D357" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E357" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F357" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H357" s="56" t="s">
         <v>188</v>
@@ -12520,7 +12590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13">
       <c r="A358" s="2" t="s">
         <v>171</v>
       </c>
@@ -12531,13 +12601,13 @@
         <v>14</v>
       </c>
       <c r="D358" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E358" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F358" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H358" s="56" t="s">
         <v>188</v>
@@ -12549,7 +12619,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" ht="45">
       <c r="A359" s="10" t="s">
         <v>182</v>
       </c>
@@ -12560,13 +12630,13 @@
         <v>14</v>
       </c>
       <c r="D359" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E359" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F359" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G359" s="28" t="s">
         <v>183</v>
@@ -12581,18 +12651,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13">
       <c r="A360" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C360" t="s">
         <v>14</v>
       </c>
       <c r="D360" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F360" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G360" s="58"/>
       <c r="H360" s="56" t="s">
@@ -12602,21 +12672,21 @@
         <v>16</v>
       </c>
       <c r="J360" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
       <c r="A361" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C361" t="s">
         <v>14</v>
       </c>
       <c r="D361" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F361" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G361" s="58"/>
       <c r="H361" s="56" t="s">
@@ -12626,21 +12696,21 @@
         <v>16</v>
       </c>
       <c r="J361" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
       <c r="A362" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C362" t="s">
         <v>14</v>
       </c>
       <c r="D362" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F362" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G362" s="58"/>
       <c r="H362" s="56" t="s">
@@ -12650,21 +12720,21 @@
         <v>16</v>
       </c>
       <c r="J362" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
       <c r="A363" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C363" t="s">
         <v>14</v>
       </c>
       <c r="D363" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F363" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G363" s="58"/>
       <c r="H363" s="56" t="s">
@@ -12674,7 +12744,7 @@
         <v>16</v>
       </c>
       <c r="J363" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
